--- a/planejamento/sprint-1-criterios.xlsx
+++ b/planejamento/sprint-1-criterios.xlsx
@@ -4,14 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="bd-1-m" sheetId="1" r:id="rId1"/>
+    <sheet name="bd-1-t" sheetId="2" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -22,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="88">
   <si>
     <t>1. Identificar as características de banco de dados relacionais e não-relacionais</t>
   </si>
@@ -232,6 +230,60 @@
   </si>
   <si>
     <t>NA - NÃO ATINGIU</t>
+  </si>
+  <si>
+    <t>ALINE</t>
+  </si>
+  <si>
+    <t>ARIEL</t>
+  </si>
+  <si>
+    <t>BRUNO</t>
+  </si>
+  <si>
+    <t>CANDIDA</t>
+  </si>
+  <si>
+    <t>DENIS</t>
+  </si>
+  <si>
+    <t>ENZO</t>
+  </si>
+  <si>
+    <t>ERYK</t>
+  </si>
+  <si>
+    <t>FELIPE</t>
+  </si>
+  <si>
+    <t>FILIPE</t>
+  </si>
+  <si>
+    <t>GUSTAVO</t>
+  </si>
+  <si>
+    <t>JOAO</t>
+  </si>
+  <si>
+    <t>LUCIANO</t>
+  </si>
+  <si>
+    <t>MARCELO</t>
+  </si>
+  <si>
+    <t>MATHEUS C.</t>
+  </si>
+  <si>
+    <t>MATHEUS H.</t>
+  </si>
+  <si>
+    <t>ODIRLEI</t>
+  </si>
+  <si>
+    <t>PALOMA</t>
+  </si>
+  <si>
+    <t>VINICIUS</t>
   </si>
 </sst>
 </file>
@@ -285,7 +337,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -308,11 +360,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -339,6 +404,18 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -354,25 +431,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="M"/>
-      <sheetName val="PERFIS-M"/>
-      <sheetName val="T"/>
-      <sheetName val="PERFIS-T"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -640,8 +698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A23" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="M47" sqref="M47"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AC8" sqref="AC8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -668,7 +726,8 @@
     <col min="20" max="20" width="3.7109375" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="3.7109375" style="10" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="27" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="3.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="1" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.25">
@@ -1143,8 +1202,12 @@
       <c r="C10" s="9">
         <v>0</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="9"/>
+      <c r="D10" s="4">
+        <v>0</v>
+      </c>
+      <c r="E10" s="9">
+        <v>0</v>
+      </c>
       <c r="F10" s="4">
         <v>10</v>
       </c>
@@ -1154,29 +1217,45 @@
       <c r="H10" s="4">
         <v>10</v>
       </c>
-      <c r="I10" s="9"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="4"/>
+      <c r="I10" s="9">
+        <v>10</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0</v>
+      </c>
+      <c r="K10" s="9">
+        <v>0</v>
+      </c>
+      <c r="L10" s="4">
+        <v>0</v>
+      </c>
       <c r="M10" s="9">
         <v>10</v>
       </c>
-      <c r="N10" s="4"/>
+      <c r="N10" s="4">
+        <v>10</v>
+      </c>
       <c r="O10" s="9">
         <v>0</v>
       </c>
       <c r="P10" s="4">
         <v>10</v>
       </c>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="4"/>
+      <c r="Q10" s="9">
+        <v>10</v>
+      </c>
+      <c r="R10" s="4">
+        <v>0</v>
+      </c>
       <c r="S10" s="9">
         <v>5</v>
       </c>
       <c r="T10" s="4">
         <v>10</v>
       </c>
-      <c r="U10" s="9"/>
+      <c r="U10" s="9">
+        <v>10</v>
+      </c>
       <c r="V10" s="4">
         <v>10</v>
       </c>
@@ -1191,8 +1270,12 @@
       <c r="C11" s="9">
         <v>10</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="9"/>
+      <c r="D11" s="4">
+        <v>0</v>
+      </c>
+      <c r="E11" s="9">
+        <v>0</v>
+      </c>
       <c r="F11" s="4">
         <v>10</v>
       </c>
@@ -1202,29 +1285,45 @@
       <c r="H11" s="4">
         <v>10</v>
       </c>
-      <c r="I11" s="9"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="4"/>
+      <c r="I11" s="9">
+        <v>10</v>
+      </c>
+      <c r="J11" s="4">
+        <v>10</v>
+      </c>
+      <c r="K11" s="9">
+        <v>0</v>
+      </c>
+      <c r="L11" s="4">
+        <v>0</v>
+      </c>
       <c r="M11" s="9">
         <v>10</v>
       </c>
-      <c r="N11" s="4"/>
+      <c r="N11" s="4">
+        <v>10</v>
+      </c>
       <c r="O11" s="9">
         <v>0</v>
       </c>
       <c r="P11" s="4">
         <v>10</v>
       </c>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="4"/>
+      <c r="Q11" s="9">
+        <v>10</v>
+      </c>
+      <c r="R11" s="4">
+        <v>0</v>
+      </c>
       <c r="S11" s="9">
         <v>0</v>
       </c>
       <c r="T11" s="4">
         <v>10</v>
       </c>
-      <c r="U11" s="9"/>
+      <c r="U11" s="9">
+        <v>10</v>
+      </c>
       <c r="V11" s="4">
         <v>10</v>
       </c>
@@ -1239,8 +1338,12 @@
       <c r="C12" s="9">
         <v>10</v>
       </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="9"/>
+      <c r="D12" s="4">
+        <v>0</v>
+      </c>
+      <c r="E12" s="9">
+        <v>0</v>
+      </c>
       <c r="F12" s="4">
         <v>10</v>
       </c>
@@ -1250,29 +1353,45 @@
       <c r="H12" s="4">
         <v>10</v>
       </c>
-      <c r="I12" s="9"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="4"/>
+      <c r="I12" s="9">
+        <v>0</v>
+      </c>
+      <c r="J12" s="4">
+        <v>0</v>
+      </c>
+      <c r="K12" s="9">
+        <v>0</v>
+      </c>
+      <c r="L12" s="4">
+        <v>0</v>
+      </c>
       <c r="M12" s="9">
         <v>10</v>
       </c>
-      <c r="N12" s="4"/>
+      <c r="N12" s="4">
+        <v>10</v>
+      </c>
       <c r="O12" s="9">
         <v>0</v>
       </c>
       <c r="P12" s="4">
         <v>10</v>
       </c>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="4"/>
+      <c r="Q12" s="9">
+        <v>0</v>
+      </c>
+      <c r="R12" s="4">
+        <v>0</v>
+      </c>
       <c r="S12" s="9">
         <v>0</v>
       </c>
       <c r="T12" s="4">
         <v>10</v>
       </c>
-      <c r="U12" s="9"/>
+      <c r="U12" s="9">
+        <v>0</v>
+      </c>
       <c r="V12" s="4">
         <v>10</v>
       </c>
@@ -1339,8 +1458,12 @@
       <c r="C15" s="9">
         <v>5</v>
       </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="9"/>
+      <c r="D15" s="4">
+        <v>0</v>
+      </c>
+      <c r="E15" s="9">
+        <v>0</v>
+      </c>
       <c r="F15" s="4">
         <v>0</v>
       </c>
@@ -1350,29 +1473,45 @@
       <c r="H15" s="4">
         <v>0</v>
       </c>
-      <c r="I15" s="9"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="4"/>
+      <c r="I15" s="9">
+        <v>10</v>
+      </c>
+      <c r="J15" s="4">
+        <v>0</v>
+      </c>
+      <c r="K15" s="9">
+        <v>0</v>
+      </c>
+      <c r="L15" s="4">
+        <v>0</v>
+      </c>
       <c r="M15" s="9">
         <v>10</v>
       </c>
-      <c r="N15" s="4"/>
+      <c r="N15" s="4">
+        <v>10</v>
+      </c>
       <c r="O15" s="9">
         <v>0</v>
       </c>
       <c r="P15" s="4">
         <v>10</v>
       </c>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="4"/>
+      <c r="Q15" s="9">
+        <v>0</v>
+      </c>
+      <c r="R15" s="4">
+        <v>0</v>
+      </c>
       <c r="S15" s="9">
         <v>0</v>
       </c>
       <c r="T15" s="4">
         <v>10</v>
       </c>
-      <c r="U15" s="9"/>
+      <c r="U15" s="9">
+        <v>0</v>
+      </c>
       <c r="V15" s="4">
         <v>10</v>
       </c>
@@ -1387,8 +1526,12 @@
       <c r="C16" s="9">
         <v>5</v>
       </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="9"/>
+      <c r="D16" s="4">
+        <v>0</v>
+      </c>
+      <c r="E16" s="9">
+        <v>0</v>
+      </c>
       <c r="F16" s="4">
         <v>5</v>
       </c>
@@ -1398,29 +1541,45 @@
       <c r="H16" s="4">
         <v>0</v>
       </c>
-      <c r="I16" s="9"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="4"/>
+      <c r="I16" s="9">
+        <v>10</v>
+      </c>
+      <c r="J16" s="4">
+        <v>0</v>
+      </c>
+      <c r="K16" s="9">
+        <v>0</v>
+      </c>
+      <c r="L16" s="4">
+        <v>0</v>
+      </c>
       <c r="M16" s="9">
         <v>10</v>
       </c>
-      <c r="N16" s="4"/>
+      <c r="N16" s="4">
+        <v>5</v>
+      </c>
       <c r="O16" s="9">
         <v>0</v>
       </c>
       <c r="P16" s="4">
         <v>10</v>
       </c>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="4"/>
+      <c r="Q16" s="9">
+        <v>0</v>
+      </c>
+      <c r="R16" s="4">
+        <v>0</v>
+      </c>
       <c r="S16" s="9">
         <v>0</v>
       </c>
       <c r="T16" s="4">
         <v>10</v>
       </c>
-      <c r="U16" s="9"/>
+      <c r="U16" s="9">
+        <v>0</v>
+      </c>
       <c r="V16" s="4">
         <v>10</v>
       </c>
@@ -1429,10 +1588,18 @@
       <c r="A17" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="9"/>
+      <c r="B17" s="4">
+        <v>0</v>
+      </c>
+      <c r="C17" s="9">
+        <v>5</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0</v>
+      </c>
+      <c r="E17" s="9">
+        <v>0</v>
+      </c>
       <c r="F17" s="4">
         <v>0</v>
       </c>
@@ -1442,29 +1609,45 @@
       <c r="H17" s="4">
         <v>0</v>
       </c>
-      <c r="I17" s="9"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="4"/>
+      <c r="I17" s="9">
+        <v>10</v>
+      </c>
+      <c r="J17" s="4">
+        <v>0</v>
+      </c>
+      <c r="K17" s="9">
+        <v>0</v>
+      </c>
+      <c r="L17" s="4">
+        <v>0</v>
+      </c>
       <c r="M17" s="9">
         <v>10</v>
       </c>
-      <c r="N17" s="4"/>
+      <c r="N17" s="4">
+        <v>0</v>
+      </c>
       <c r="O17" s="9">
         <v>0</v>
       </c>
       <c r="P17" s="4">
         <v>10</v>
       </c>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="4"/>
+      <c r="Q17" s="9">
+        <v>0</v>
+      </c>
+      <c r="R17" s="4">
+        <v>0</v>
+      </c>
       <c r="S17" s="9">
         <v>0</v>
       </c>
       <c r="T17" s="4">
         <v>10</v>
       </c>
-      <c r="U17" s="9"/>
+      <c r="U17" s="9">
+        <v>0</v>
+      </c>
       <c r="V17" s="4">
         <v>10</v>
       </c>
@@ -1505,8 +1688,12 @@
       <c r="C19" s="9">
         <v>10</v>
       </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="9"/>
+      <c r="D19" s="4">
+        <v>0</v>
+      </c>
+      <c r="E19" s="9">
+        <v>0</v>
+      </c>
       <c r="F19" s="4">
         <v>10</v>
       </c>
@@ -1516,29 +1703,45 @@
       <c r="H19" s="4">
         <v>10</v>
       </c>
-      <c r="I19" s="9"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="4"/>
+      <c r="I19" s="9">
+        <v>10</v>
+      </c>
+      <c r="J19" s="4">
+        <v>10</v>
+      </c>
+      <c r="K19" s="9">
+        <v>0</v>
+      </c>
+      <c r="L19" s="4">
+        <v>0</v>
+      </c>
       <c r="M19" s="9">
         <v>10</v>
       </c>
-      <c r="N19" s="4"/>
+      <c r="N19" s="4">
+        <v>10</v>
+      </c>
       <c r="O19" s="11">
         <v>10</v>
       </c>
       <c r="P19" s="4">
         <v>10</v>
       </c>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="4"/>
+      <c r="Q19" s="9">
+        <v>5</v>
+      </c>
+      <c r="R19" s="4">
+        <v>0</v>
+      </c>
       <c r="S19" s="9">
         <v>5</v>
       </c>
       <c r="T19" s="4">
         <v>10</v>
       </c>
-      <c r="U19" s="9"/>
+      <c r="U19" s="9">
+        <v>10</v>
+      </c>
       <c r="V19" s="4">
         <v>10</v>
       </c>
@@ -1553,8 +1756,12 @@
       <c r="C20" s="9">
         <v>0</v>
       </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="9"/>
+      <c r="D20" s="4">
+        <v>0</v>
+      </c>
+      <c r="E20" s="9">
+        <v>0</v>
+      </c>
       <c r="F20" s="4">
         <v>10</v>
       </c>
@@ -1564,29 +1771,45 @@
       <c r="H20" s="4">
         <v>10</v>
       </c>
-      <c r="I20" s="9"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="4"/>
+      <c r="I20" s="9">
+        <v>0</v>
+      </c>
+      <c r="J20" s="4">
+        <v>0</v>
+      </c>
+      <c r="K20" s="9">
+        <v>0</v>
+      </c>
+      <c r="L20" s="4">
+        <v>0</v>
+      </c>
       <c r="M20" s="9">
         <v>10</v>
       </c>
-      <c r="N20" s="4"/>
+      <c r="N20" s="4">
+        <v>0</v>
+      </c>
       <c r="O20" s="9">
         <v>0</v>
       </c>
       <c r="P20" s="4">
         <v>10</v>
       </c>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="4"/>
+      <c r="Q20" s="9">
+        <v>0</v>
+      </c>
+      <c r="R20" s="4">
+        <v>0</v>
+      </c>
       <c r="S20" s="9">
         <v>0</v>
       </c>
       <c r="T20" s="4">
         <v>10</v>
       </c>
-      <c r="U20" s="9"/>
+      <c r="U20" s="9">
+        <v>0</v>
+      </c>
       <c r="V20" s="4">
         <v>0</v>
       </c>
@@ -1627,8 +1850,12 @@
       <c r="C22" s="9">
         <v>0</v>
       </c>
-      <c r="D22" s="4"/>
-      <c r="E22" s="9"/>
+      <c r="D22" s="4">
+        <v>0</v>
+      </c>
+      <c r="E22" s="9">
+        <v>0</v>
+      </c>
       <c r="F22" s="4">
         <v>0</v>
       </c>
@@ -1638,29 +1865,45 @@
       <c r="H22" s="4">
         <v>10</v>
       </c>
-      <c r="I22" s="9"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="4"/>
+      <c r="I22" s="9">
+        <v>10</v>
+      </c>
+      <c r="J22" s="4">
+        <v>0</v>
+      </c>
+      <c r="K22" s="9">
+        <v>0</v>
+      </c>
+      <c r="L22" s="4">
+        <v>0</v>
+      </c>
       <c r="M22" s="9">
         <v>10</v>
       </c>
-      <c r="N22" s="4"/>
+      <c r="N22" s="4">
+        <v>0</v>
+      </c>
       <c r="O22" s="9">
         <v>0</v>
       </c>
       <c r="P22" s="4">
         <v>10</v>
       </c>
-      <c r="Q22" s="9"/>
-      <c r="R22" s="4"/>
+      <c r="Q22" s="9">
+        <v>0</v>
+      </c>
+      <c r="R22" s="4">
+        <v>0</v>
+      </c>
       <c r="S22" s="9">
         <v>10</v>
       </c>
       <c r="T22" s="4">
         <v>10</v>
       </c>
-      <c r="U22" s="9"/>
+      <c r="U22" s="9">
+        <v>0</v>
+      </c>
       <c r="V22" s="4">
         <v>10</v>
       </c>
@@ -1675,8 +1918,12 @@
       <c r="C23" s="9">
         <v>10</v>
       </c>
-      <c r="D23" s="4"/>
-      <c r="E23" s="9"/>
+      <c r="D23" s="4">
+        <v>0</v>
+      </c>
+      <c r="E23" s="9">
+        <v>0</v>
+      </c>
       <c r="F23" s="4">
         <v>0</v>
       </c>
@@ -1686,29 +1933,45 @@
       <c r="H23" s="4">
         <v>10</v>
       </c>
-      <c r="I23" s="9"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="4"/>
+      <c r="I23" s="9">
+        <v>10</v>
+      </c>
+      <c r="J23" s="4">
+        <v>10</v>
+      </c>
+      <c r="K23" s="9">
+        <v>0</v>
+      </c>
+      <c r="L23" s="4">
+        <v>0</v>
+      </c>
       <c r="M23" s="9">
         <v>10</v>
       </c>
-      <c r="N23" s="4"/>
+      <c r="N23" s="4">
+        <v>10</v>
+      </c>
       <c r="O23" s="9">
         <v>10</v>
       </c>
       <c r="P23" s="4">
         <v>10</v>
       </c>
-      <c r="Q23" s="9"/>
-      <c r="R23" s="4"/>
+      <c r="Q23" s="9">
+        <v>10</v>
+      </c>
+      <c r="R23" s="4">
+        <v>0</v>
+      </c>
       <c r="S23" s="9">
         <v>10</v>
       </c>
       <c r="T23" s="4">
         <v>10</v>
       </c>
-      <c r="U23" s="9"/>
+      <c r="U23" s="9">
+        <v>10</v>
+      </c>
       <c r="V23" s="4">
         <v>10</v>
       </c>
@@ -1749,8 +2012,12 @@
       <c r="C25" s="9">
         <v>10</v>
       </c>
-      <c r="D25" s="4"/>
-      <c r="E25" s="9"/>
+      <c r="D25" s="4">
+        <v>0</v>
+      </c>
+      <c r="E25" s="9">
+        <v>10</v>
+      </c>
       <c r="F25" s="4">
         <v>0</v>
       </c>
@@ -1760,29 +2027,45 @@
       <c r="H25" s="4">
         <v>10</v>
       </c>
-      <c r="I25" s="9"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="4"/>
+      <c r="I25" s="9">
+        <v>10</v>
+      </c>
+      <c r="J25" s="4">
+        <v>10</v>
+      </c>
+      <c r="K25" s="9">
+        <v>0</v>
+      </c>
+      <c r="L25" s="4">
+        <v>0</v>
+      </c>
       <c r="M25" s="9">
         <v>10</v>
       </c>
-      <c r="N25" s="4"/>
+      <c r="N25" s="4">
+        <v>10</v>
+      </c>
       <c r="O25" s="9">
         <v>10</v>
       </c>
       <c r="P25" s="4">
         <v>10</v>
       </c>
-      <c r="Q25" s="9"/>
-      <c r="R25" s="4"/>
+      <c r="Q25" s="9">
+        <v>10</v>
+      </c>
+      <c r="R25" s="4">
+        <v>0</v>
+      </c>
       <c r="S25" s="9">
         <v>10</v>
       </c>
       <c r="T25" s="4">
         <v>10</v>
       </c>
-      <c r="U25" s="9"/>
+      <c r="U25" s="9">
+        <v>10</v>
+      </c>
       <c r="V25" s="4">
         <v>10</v>
       </c>
@@ -1797,8 +2080,12 @@
       <c r="C26" s="9">
         <v>10</v>
       </c>
-      <c r="D26" s="4"/>
-      <c r="E26" s="9"/>
+      <c r="D26" s="4">
+        <v>0</v>
+      </c>
+      <c r="E26" s="9">
+        <v>0</v>
+      </c>
       <c r="F26" s="4">
         <v>0</v>
       </c>
@@ -1808,29 +2095,45 @@
       <c r="H26" s="4">
         <v>10</v>
       </c>
-      <c r="I26" s="9"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="4"/>
+      <c r="I26" s="9">
+        <v>10</v>
+      </c>
+      <c r="J26" s="4">
+        <v>10</v>
+      </c>
+      <c r="K26" s="9">
+        <v>0</v>
+      </c>
+      <c r="L26" s="4">
+        <v>0</v>
+      </c>
       <c r="M26" s="9">
         <v>10</v>
       </c>
-      <c r="N26" s="4"/>
+      <c r="N26" s="4">
+        <v>10</v>
+      </c>
       <c r="O26" s="9">
         <v>10</v>
       </c>
       <c r="P26" s="4">
         <v>10</v>
       </c>
-      <c r="Q26" s="9"/>
-      <c r="R26" s="4"/>
+      <c r="Q26" s="9">
+        <v>10</v>
+      </c>
+      <c r="R26" s="4">
+        <v>0</v>
+      </c>
       <c r="S26" s="9">
         <v>10</v>
       </c>
       <c r="T26" s="4">
         <v>10</v>
       </c>
-      <c r="U26" s="9"/>
+      <c r="U26" s="9">
+        <v>10</v>
+      </c>
       <c r="V26" s="4">
         <v>10</v>
       </c>
@@ -1871,8 +2174,12 @@
       <c r="C28" s="9">
         <v>10</v>
       </c>
-      <c r="D28" s="4"/>
-      <c r="E28" s="9"/>
+      <c r="D28" s="4">
+        <v>0</v>
+      </c>
+      <c r="E28" s="9">
+        <v>0</v>
+      </c>
       <c r="F28" s="4">
         <v>0</v>
       </c>
@@ -1882,29 +2189,45 @@
       <c r="H28" s="4">
         <v>10</v>
       </c>
-      <c r="I28" s="9"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="4"/>
+      <c r="I28" s="9">
+        <v>10</v>
+      </c>
+      <c r="J28" s="4">
+        <v>10</v>
+      </c>
+      <c r="K28" s="9">
+        <v>0</v>
+      </c>
+      <c r="L28" s="4">
+        <v>0</v>
+      </c>
       <c r="M28" s="9">
         <v>10</v>
       </c>
-      <c r="N28" s="4"/>
+      <c r="N28" s="4">
+        <v>10</v>
+      </c>
       <c r="O28" s="9">
         <v>0</v>
       </c>
       <c r="P28" s="4">
         <v>10</v>
       </c>
-      <c r="Q28" s="9"/>
-      <c r="R28" s="4"/>
+      <c r="Q28" s="9">
+        <v>0</v>
+      </c>
+      <c r="R28" s="4">
+        <v>0</v>
+      </c>
       <c r="S28" s="9">
         <v>10</v>
       </c>
       <c r="T28" s="4">
         <v>10</v>
       </c>
-      <c r="U28" s="9"/>
+      <c r="U28" s="9">
+        <v>0</v>
+      </c>
       <c r="V28" s="4">
         <v>10</v>
       </c>
@@ -1919,8 +2242,12 @@
       <c r="C29" s="9">
         <v>10</v>
       </c>
-      <c r="D29" s="4"/>
-      <c r="E29" s="9"/>
+      <c r="D29" s="4">
+        <v>0</v>
+      </c>
+      <c r="E29" s="9">
+        <v>0</v>
+      </c>
       <c r="F29" s="4">
         <v>0</v>
       </c>
@@ -1930,29 +2257,45 @@
       <c r="H29" s="4">
         <v>10</v>
       </c>
-      <c r="I29" s="9"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="4"/>
+      <c r="I29" s="9">
+        <v>10</v>
+      </c>
+      <c r="J29" s="4">
+        <v>10</v>
+      </c>
+      <c r="K29" s="9">
+        <v>0</v>
+      </c>
+      <c r="L29" s="4">
+        <v>0</v>
+      </c>
       <c r="M29" s="9">
         <v>10</v>
       </c>
-      <c r="N29" s="4"/>
+      <c r="N29" s="4">
+        <v>10</v>
+      </c>
       <c r="O29" s="9">
         <v>0</v>
       </c>
       <c r="P29" s="4">
         <v>10</v>
       </c>
-      <c r="Q29" s="9"/>
-      <c r="R29" s="4"/>
+      <c r="Q29" s="9">
+        <v>0</v>
+      </c>
+      <c r="R29" s="4">
+        <v>0</v>
+      </c>
       <c r="S29" s="9">
         <v>10</v>
       </c>
       <c r="T29" s="4">
         <v>10</v>
       </c>
-      <c r="U29" s="9"/>
+      <c r="U29" s="9">
+        <v>10</v>
+      </c>
       <c r="V29" s="4">
         <v>10</v>
       </c>
@@ -1967,8 +2310,12 @@
       <c r="C30" s="9">
         <v>10</v>
       </c>
-      <c r="D30" s="4"/>
-      <c r="E30" s="9"/>
+      <c r="D30" s="4">
+        <v>0</v>
+      </c>
+      <c r="E30" s="9">
+        <v>0</v>
+      </c>
       <c r="F30" s="4">
         <v>0</v>
       </c>
@@ -1978,29 +2325,45 @@
       <c r="H30" s="4">
         <v>10</v>
       </c>
-      <c r="I30" s="9"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="4"/>
+      <c r="I30" s="9">
+        <v>10</v>
+      </c>
+      <c r="J30" s="4">
+        <v>10</v>
+      </c>
+      <c r="K30" s="9">
+        <v>0</v>
+      </c>
+      <c r="L30" s="4">
+        <v>0</v>
+      </c>
       <c r="M30" s="9">
         <v>10</v>
       </c>
-      <c r="N30" s="4"/>
+      <c r="N30" s="4">
+        <v>10</v>
+      </c>
       <c r="O30" s="9">
         <v>0</v>
       </c>
       <c r="P30" s="4">
         <v>10</v>
       </c>
-      <c r="Q30" s="9"/>
-      <c r="R30" s="4"/>
+      <c r="Q30" s="9">
+        <v>0</v>
+      </c>
+      <c r="R30" s="4">
+        <v>0</v>
+      </c>
       <c r="S30" s="9">
         <v>10</v>
       </c>
       <c r="T30" s="4">
         <v>10</v>
       </c>
-      <c r="U30" s="9"/>
+      <c r="U30" s="9">
+        <v>10</v>
+      </c>
       <c r="V30" s="4">
         <v>10</v>
       </c>
@@ -2041,8 +2404,12 @@
       <c r="C32" s="9">
         <v>10</v>
       </c>
-      <c r="D32" s="4"/>
-      <c r="E32" s="9"/>
+      <c r="D32" s="4">
+        <v>0</v>
+      </c>
+      <c r="E32" s="9">
+        <v>0</v>
+      </c>
       <c r="F32" s="4">
         <v>10</v>
       </c>
@@ -2052,29 +2419,45 @@
       <c r="H32" s="4">
         <v>10</v>
       </c>
-      <c r="I32" s="9"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="4"/>
+      <c r="I32" s="9">
+        <v>10</v>
+      </c>
+      <c r="J32" s="4">
+        <v>10</v>
+      </c>
+      <c r="K32" s="9">
+        <v>0</v>
+      </c>
+      <c r="L32" s="4">
+        <v>0</v>
+      </c>
       <c r="M32" s="9">
         <v>10</v>
       </c>
-      <c r="N32" s="4"/>
+      <c r="N32" s="4">
+        <v>10</v>
+      </c>
       <c r="O32" s="9">
         <v>10</v>
       </c>
       <c r="P32" s="4">
         <v>10</v>
       </c>
-      <c r="Q32" s="9"/>
-      <c r="R32" s="4"/>
+      <c r="Q32" s="9">
+        <v>10</v>
+      </c>
+      <c r="R32" s="4">
+        <v>0</v>
+      </c>
       <c r="S32" s="9">
         <v>10</v>
       </c>
       <c r="T32" s="4">
         <v>10</v>
       </c>
-      <c r="U32" s="9"/>
+      <c r="U32" s="9">
+        <v>10</v>
+      </c>
       <c r="V32" s="4">
         <v>10</v>
       </c>
@@ -2089,8 +2472,12 @@
       <c r="C33" s="9">
         <v>0</v>
       </c>
-      <c r="D33" s="4"/>
-      <c r="E33" s="9"/>
+      <c r="D33" s="4">
+        <v>0</v>
+      </c>
+      <c r="E33" s="9">
+        <v>0</v>
+      </c>
       <c r="F33" s="4">
         <v>5</v>
       </c>
@@ -2100,29 +2487,45 @@
       <c r="H33" s="4">
         <v>0</v>
       </c>
-      <c r="I33" s="9"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="4"/>
+      <c r="I33" s="9">
+        <v>10</v>
+      </c>
+      <c r="J33" s="4">
+        <v>10</v>
+      </c>
+      <c r="K33" s="9">
+        <v>0</v>
+      </c>
+      <c r="L33" s="4">
+        <v>0</v>
+      </c>
       <c r="M33" s="9">
         <v>10</v>
       </c>
-      <c r="N33" s="4"/>
+      <c r="N33" s="4">
+        <v>10</v>
+      </c>
       <c r="O33" s="9">
         <v>0</v>
       </c>
       <c r="P33" s="4">
         <v>10</v>
       </c>
-      <c r="Q33" s="9"/>
-      <c r="R33" s="4"/>
+      <c r="Q33" s="9">
+        <v>0</v>
+      </c>
+      <c r="R33" s="4">
+        <v>0</v>
+      </c>
       <c r="S33" s="9">
         <v>5</v>
       </c>
       <c r="T33" s="4">
         <v>10</v>
       </c>
-      <c r="U33" s="9"/>
+      <c r="U33" s="9">
+        <v>10</v>
+      </c>
       <c r="V33" s="4">
         <v>10</v>
       </c>
@@ -2163,8 +2566,12 @@
       <c r="C35" s="9">
         <v>10</v>
       </c>
-      <c r="D35" s="4"/>
-      <c r="E35" s="9"/>
+      <c r="D35" s="4">
+        <v>0</v>
+      </c>
+      <c r="E35" s="9">
+        <v>0</v>
+      </c>
       <c r="F35" s="4">
         <v>0</v>
       </c>
@@ -2174,29 +2581,45 @@
       <c r="H35" s="4">
         <v>10</v>
       </c>
-      <c r="I35" s="9"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="4"/>
+      <c r="I35" s="9">
+        <v>0</v>
+      </c>
+      <c r="J35" s="4">
+        <v>10</v>
+      </c>
+      <c r="K35" s="9">
+        <v>0</v>
+      </c>
+      <c r="L35" s="4">
+        <v>0</v>
+      </c>
       <c r="M35" s="9">
         <v>10</v>
       </c>
-      <c r="N35" s="4"/>
+      <c r="N35" s="4">
+        <v>10</v>
+      </c>
       <c r="O35" s="9">
         <v>0</v>
       </c>
       <c r="P35" s="4">
         <v>10</v>
       </c>
-      <c r="Q35" s="9"/>
-      <c r="R35" s="4"/>
+      <c r="Q35" s="9">
+        <v>0</v>
+      </c>
+      <c r="R35" s="4">
+        <v>0</v>
+      </c>
       <c r="S35" s="9">
         <v>10</v>
       </c>
       <c r="T35" s="4">
         <v>10</v>
       </c>
-      <c r="U35" s="9"/>
+      <c r="U35" s="9">
+        <v>0</v>
+      </c>
       <c r="V35" s="4">
         <v>10</v>
       </c>
@@ -2211,8 +2634,12 @@
       <c r="C36" s="9">
         <v>10</v>
       </c>
-      <c r="D36" s="4"/>
-      <c r="E36" s="9"/>
+      <c r="D36" s="4">
+        <v>0</v>
+      </c>
+      <c r="E36" s="9">
+        <v>0</v>
+      </c>
       <c r="F36" s="4">
         <v>0</v>
       </c>
@@ -2222,29 +2649,45 @@
       <c r="H36" s="4">
         <v>10</v>
       </c>
-      <c r="I36" s="9"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="9"/>
-      <c r="L36" s="4"/>
+      <c r="I36" s="9">
+        <v>0</v>
+      </c>
+      <c r="J36" s="4">
+        <v>10</v>
+      </c>
+      <c r="K36" s="9">
+        <v>0</v>
+      </c>
+      <c r="L36" s="4">
+        <v>0</v>
+      </c>
       <c r="M36" s="9">
         <v>10</v>
       </c>
-      <c r="N36" s="4"/>
+      <c r="N36" s="4">
+        <v>10</v>
+      </c>
       <c r="O36" s="9">
         <v>0</v>
       </c>
       <c r="P36" s="4">
         <v>10</v>
       </c>
-      <c r="Q36" s="9"/>
-      <c r="R36" s="4"/>
+      <c r="Q36" s="9">
+        <v>0</v>
+      </c>
+      <c r="R36" s="4">
+        <v>0</v>
+      </c>
       <c r="S36" s="9">
         <v>10</v>
       </c>
       <c r="T36" s="4">
         <v>10</v>
       </c>
-      <c r="U36" s="9"/>
+      <c r="U36" s="9">
+        <v>0</v>
+      </c>
       <c r="V36" s="4">
         <v>10</v>
       </c>
@@ -2259,8 +2702,12 @@
       <c r="C37" s="9">
         <v>10</v>
       </c>
-      <c r="D37" s="4"/>
-      <c r="E37" s="9"/>
+      <c r="D37" s="4">
+        <v>0</v>
+      </c>
+      <c r="E37" s="9">
+        <v>0</v>
+      </c>
       <c r="F37" s="4">
         <v>0</v>
       </c>
@@ -2270,27 +2717,45 @@
       <c r="H37" s="4">
         <v>0</v>
       </c>
-      <c r="I37" s="9"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="9"/>
-      <c r="L37" s="4"/>
-      <c r="M37" s="9"/>
-      <c r="N37" s="4"/>
+      <c r="I37" s="9">
+        <v>0</v>
+      </c>
+      <c r="J37" s="4">
+        <v>0</v>
+      </c>
+      <c r="K37" s="9">
+        <v>0</v>
+      </c>
+      <c r="L37" s="4">
+        <v>0</v>
+      </c>
+      <c r="M37" s="9">
+        <v>0</v>
+      </c>
+      <c r="N37" s="4">
+        <v>0</v>
+      </c>
       <c r="O37" s="9">
         <v>0</v>
       </c>
       <c r="P37" s="4">
         <v>10</v>
       </c>
-      <c r="Q37" s="9"/>
-      <c r="R37" s="4"/>
+      <c r="Q37" s="9">
+        <v>0</v>
+      </c>
+      <c r="R37" s="4">
+        <v>0</v>
+      </c>
       <c r="S37" s="9">
         <v>0</v>
       </c>
       <c r="T37" s="4">
         <v>10</v>
       </c>
-      <c r="U37" s="9"/>
+      <c r="U37" s="9">
+        <v>0</v>
+      </c>
       <c r="V37" s="4">
         <v>10</v>
       </c>
@@ -2305,8 +2770,12 @@
       <c r="C38" s="9">
         <v>10</v>
       </c>
-      <c r="D38" s="4"/>
-      <c r="E38" s="9"/>
+      <c r="D38" s="4">
+        <v>0</v>
+      </c>
+      <c r="E38" s="9">
+        <v>0</v>
+      </c>
       <c r="F38" s="4">
         <v>0</v>
       </c>
@@ -2316,27 +2785,45 @@
       <c r="H38" s="4">
         <v>0</v>
       </c>
-      <c r="I38" s="9"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="9"/>
-      <c r="L38" s="4"/>
-      <c r="M38" s="9"/>
-      <c r="N38" s="4"/>
+      <c r="I38" s="9">
+        <v>0</v>
+      </c>
+      <c r="J38" s="4">
+        <v>0</v>
+      </c>
+      <c r="K38" s="9">
+        <v>0</v>
+      </c>
+      <c r="L38" s="4">
+        <v>0</v>
+      </c>
+      <c r="M38" s="9">
+        <v>0</v>
+      </c>
+      <c r="N38" s="4">
+        <v>0</v>
+      </c>
       <c r="O38" s="9">
         <v>0</v>
       </c>
       <c r="P38" s="4">
         <v>10</v>
       </c>
-      <c r="Q38" s="9"/>
-      <c r="R38" s="4"/>
+      <c r="Q38" s="9">
+        <v>0</v>
+      </c>
+      <c r="R38" s="4">
+        <v>0</v>
+      </c>
       <c r="S38" s="9">
         <v>0</v>
       </c>
       <c r="T38" s="4">
         <v>10</v>
       </c>
-      <c r="U38" s="9"/>
+      <c r="U38" s="9">
+        <v>0</v>
+      </c>
       <c r="V38" s="4">
         <v>10</v>
       </c>
@@ -2377,8 +2864,12 @@
       <c r="C40" s="9">
         <v>0</v>
       </c>
-      <c r="D40" s="4"/>
-      <c r="E40" s="9"/>
+      <c r="D40" s="4">
+        <v>0</v>
+      </c>
+      <c r="E40" s="9">
+        <v>0</v>
+      </c>
       <c r="F40" s="4">
         <v>0</v>
       </c>
@@ -2388,29 +2879,45 @@
       <c r="H40" s="4">
         <v>0</v>
       </c>
-      <c r="I40" s="9"/>
-      <c r="J40" s="4"/>
-      <c r="K40" s="9"/>
-      <c r="L40" s="4"/>
+      <c r="I40" s="9">
+        <v>10</v>
+      </c>
+      <c r="J40" s="4">
+        <v>0</v>
+      </c>
+      <c r="K40" s="9">
+        <v>0</v>
+      </c>
+      <c r="L40" s="4">
+        <v>0</v>
+      </c>
       <c r="M40" s="9">
         <v>10</v>
       </c>
-      <c r="N40" s="4"/>
+      <c r="N40" s="4">
+        <v>0</v>
+      </c>
       <c r="O40" s="9">
         <v>0</v>
       </c>
       <c r="P40" s="4">
         <v>0</v>
       </c>
-      <c r="Q40" s="9"/>
-      <c r="R40" s="4"/>
+      <c r="Q40" s="9">
+        <v>0</v>
+      </c>
+      <c r="R40" s="4">
+        <v>0</v>
+      </c>
       <c r="S40" s="9">
         <v>0</v>
       </c>
       <c r="T40" s="4">
         <v>10</v>
       </c>
-      <c r="U40" s="9"/>
+      <c r="U40" s="9">
+        <v>0</v>
+      </c>
       <c r="V40" s="4">
         <v>10</v>
       </c>
@@ -2425,8 +2932,12 @@
       <c r="C41" s="9">
         <v>0</v>
       </c>
-      <c r="D41" s="4"/>
-      <c r="E41" s="9"/>
+      <c r="D41" s="4">
+        <v>0</v>
+      </c>
+      <c r="E41" s="9">
+        <v>0</v>
+      </c>
       <c r="F41" s="4">
         <v>0</v>
       </c>
@@ -2436,29 +2947,45 @@
       <c r="H41" s="4">
         <v>0</v>
       </c>
-      <c r="I41" s="9"/>
-      <c r="J41" s="4"/>
-      <c r="K41" s="9"/>
-      <c r="L41" s="4"/>
+      <c r="I41" s="9">
+        <v>10</v>
+      </c>
+      <c r="J41" s="4">
+        <v>0</v>
+      </c>
+      <c r="K41" s="9">
+        <v>0</v>
+      </c>
+      <c r="L41" s="4">
+        <v>0</v>
+      </c>
       <c r="M41" s="9">
         <v>10</v>
       </c>
-      <c r="N41" s="4"/>
+      <c r="N41" s="4">
+        <v>0</v>
+      </c>
       <c r="O41" s="9">
         <v>0</v>
       </c>
       <c r="P41" s="4">
         <v>0</v>
       </c>
-      <c r="Q41" s="9"/>
-      <c r="R41" s="4"/>
+      <c r="Q41" s="9">
+        <v>0</v>
+      </c>
+      <c r="R41" s="4">
+        <v>0</v>
+      </c>
       <c r="S41" s="9">
         <v>10</v>
       </c>
       <c r="T41" s="4">
         <v>10</v>
       </c>
-      <c r="U41" s="9"/>
+      <c r="U41" s="9">
+        <v>10</v>
+      </c>
       <c r="V41" s="4">
         <v>10</v>
       </c>
@@ -2473,8 +3000,12 @@
       <c r="C42" s="9">
         <v>0</v>
       </c>
-      <c r="D42" s="4"/>
-      <c r="E42" s="9"/>
+      <c r="D42" s="4">
+        <v>0</v>
+      </c>
+      <c r="E42" s="9">
+        <v>0</v>
+      </c>
       <c r="F42" s="4">
         <v>0</v>
       </c>
@@ -2484,34 +3015,50 @@
       <c r="H42" s="4">
         <v>0</v>
       </c>
-      <c r="I42" s="9"/>
-      <c r="J42" s="4"/>
-      <c r="K42" s="9"/>
-      <c r="L42" s="4"/>
+      <c r="I42" s="9">
+        <v>10</v>
+      </c>
+      <c r="J42" s="4">
+        <v>0</v>
+      </c>
+      <c r="K42" s="9">
+        <v>0</v>
+      </c>
+      <c r="L42" s="4">
+        <v>0</v>
+      </c>
       <c r="M42" s="9">
         <v>10</v>
       </c>
-      <c r="N42" s="4"/>
+      <c r="N42" s="4">
+        <v>0</v>
+      </c>
       <c r="O42" s="9">
         <v>0</v>
       </c>
       <c r="P42" s="4">
         <v>0</v>
       </c>
-      <c r="Q42" s="9"/>
-      <c r="R42" s="4"/>
+      <c r="Q42" s="9">
+        <v>0</v>
+      </c>
+      <c r="R42" s="4">
+        <v>0</v>
+      </c>
       <c r="S42" s="9">
         <v>0</v>
       </c>
       <c r="T42" s="4">
         <v>10</v>
       </c>
-      <c r="U42" s="9"/>
+      <c r="U42" s="9">
+        <v>10</v>
+      </c>
       <c r="V42" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>41</v>
       </c>
@@ -2547,8 +3094,12 @@
       <c r="C44" s="9">
         <v>0</v>
       </c>
-      <c r="D44" s="4"/>
-      <c r="E44" s="9"/>
+      <c r="D44" s="4">
+        <v>0</v>
+      </c>
+      <c r="E44" s="9">
+        <v>0</v>
+      </c>
       <c r="F44" s="4">
         <v>0</v>
       </c>
@@ -2558,21 +3109,33 @@
       <c r="H44" s="4">
         <v>0</v>
       </c>
-      <c r="I44" s="9"/>
-      <c r="J44" s="4"/>
-      <c r="K44" s="9"/>
-      <c r="L44" s="4"/>
+      <c r="I44" s="9">
+        <v>10</v>
+      </c>
+      <c r="J44" s="4">
+        <v>0</v>
+      </c>
+      <c r="K44" s="9">
+        <v>0</v>
+      </c>
+      <c r="L44" s="4">
+        <v>0</v>
+      </c>
       <c r="M44" s="9">
         <v>10</v>
       </c>
-      <c r="N44" s="4"/>
+      <c r="N44" s="4">
+        <v>0</v>
+      </c>
       <c r="O44" s="9">
         <v>0</v>
       </c>
       <c r="P44" s="4">
         <v>0</v>
       </c>
-      <c r="Q44" s="9"/>
+      <c r="Q44" s="9">
+        <v>0</v>
+      </c>
       <c r="R44" s="4"/>
       <c r="S44" s="9">
         <v>0</v>
@@ -2580,9 +3143,11 @@
       <c r="T44" s="4">
         <v>10</v>
       </c>
-      <c r="U44" s="9"/>
+      <c r="U44" s="9">
+        <v>10</v>
+      </c>
       <c r="V44" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.25">
@@ -2595,8 +3160,12 @@
       <c r="C45" s="9">
         <v>0</v>
       </c>
-      <c r="D45" s="4"/>
-      <c r="E45" s="9"/>
+      <c r="D45" s="4">
+        <v>0</v>
+      </c>
+      <c r="E45" s="9">
+        <v>0</v>
+      </c>
       <c r="F45" s="4">
         <v>0</v>
       </c>
@@ -2606,21 +3175,33 @@
       <c r="H45" s="4">
         <v>0</v>
       </c>
-      <c r="I45" s="9"/>
-      <c r="J45" s="4"/>
-      <c r="K45" s="9"/>
-      <c r="L45" s="4"/>
+      <c r="I45" s="9">
+        <v>10</v>
+      </c>
+      <c r="J45" s="4">
+        <v>0</v>
+      </c>
+      <c r="K45" s="9">
+        <v>0</v>
+      </c>
+      <c r="L45" s="4">
+        <v>0</v>
+      </c>
       <c r="M45" s="9">
         <v>10</v>
       </c>
-      <c r="N45" s="4"/>
+      <c r="N45" s="4">
+        <v>0</v>
+      </c>
       <c r="O45" s="9">
         <v>0</v>
       </c>
       <c r="P45" s="4">
         <v>0</v>
       </c>
-      <c r="Q45" s="9"/>
+      <c r="Q45" s="9">
+        <v>0</v>
+      </c>
       <c r="R45" s="4"/>
       <c r="S45" s="9">
         <v>0</v>
@@ -2628,9 +3209,11 @@
       <c r="T45" s="4">
         <v>10</v>
       </c>
-      <c r="U45" s="9"/>
+      <c r="U45" s="9">
+        <v>0</v>
+      </c>
       <c r="V45" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.25">
@@ -2643,8 +3226,12 @@
       <c r="C46" s="9">
         <v>0</v>
       </c>
-      <c r="D46" s="4"/>
-      <c r="E46" s="9"/>
+      <c r="D46" s="4">
+        <v>0</v>
+      </c>
+      <c r="E46" s="9">
+        <v>0</v>
+      </c>
       <c r="F46" s="4">
         <v>0</v>
       </c>
@@ -2654,21 +3241,33 @@
       <c r="H46" s="4">
         <v>0</v>
       </c>
-      <c r="I46" s="9"/>
-      <c r="J46" s="4"/>
-      <c r="K46" s="9"/>
-      <c r="L46" s="4"/>
+      <c r="I46" s="9">
+        <v>10</v>
+      </c>
+      <c r="J46" s="4">
+        <v>0</v>
+      </c>
+      <c r="K46" s="9">
+        <v>0</v>
+      </c>
+      <c r="L46" s="4">
+        <v>0</v>
+      </c>
       <c r="M46" s="9">
         <v>10</v>
       </c>
-      <c r="N46" s="4"/>
+      <c r="N46" s="4">
+        <v>0</v>
+      </c>
       <c r="O46" s="9">
         <v>0</v>
       </c>
       <c r="P46" s="4">
         <v>0</v>
       </c>
-      <c r="Q46" s="9"/>
+      <c r="Q46" s="9">
+        <v>0</v>
+      </c>
       <c r="R46" s="4"/>
       <c r="S46" s="9">
         <v>0</v>
@@ -2676,13 +3275,2459 @@
       <c r="T46" s="4">
         <v>10</v>
       </c>
-      <c r="U46" s="9"/>
+      <c r="U46" s="9">
+        <v>10</v>
+      </c>
       <c r="V46" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Y46"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="90.42578125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="3.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="3.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="3.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="M1" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="O1" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="P1" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q1" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="R1" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="S1" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="T1" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="U1" s="15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="9"/>
+      <c r="X2" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y2" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4">
+        <v>10</v>
+      </c>
+      <c r="C3" s="9">
+        <v>10</v>
+      </c>
+      <c r="D3" s="4">
+        <v>10</v>
+      </c>
+      <c r="E3" s="9">
+        <v>10</v>
+      </c>
+      <c r="F3" s="4">
+        <v>10</v>
+      </c>
+      <c r="G3" s="9">
+        <v>10</v>
+      </c>
+      <c r="H3" s="4">
+        <v>10</v>
+      </c>
+      <c r="I3" s="9">
+        <v>10</v>
+      </c>
+      <c r="J3" s="4">
+        <v>10</v>
+      </c>
+      <c r="K3" s="9">
+        <v>10</v>
+      </c>
+      <c r="L3" s="4">
+        <v>10</v>
+      </c>
+      <c r="M3" s="9">
+        <v>10</v>
+      </c>
+      <c r="N3" s="4">
+        <v>10</v>
+      </c>
+      <c r="O3" s="9">
+        <v>10</v>
+      </c>
+      <c r="P3" s="4">
+        <v>10</v>
+      </c>
+      <c r="Q3" s="9">
+        <v>10</v>
+      </c>
+      <c r="R3" s="4">
+        <v>10</v>
+      </c>
+      <c r="S3" s="9">
+        <v>10</v>
+      </c>
+      <c r="T3" s="4">
+        <v>10</v>
+      </c>
+      <c r="U3" s="9">
+        <v>10</v>
+      </c>
+      <c r="X3" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4">
+        <v>10</v>
+      </c>
+      <c r="C4" s="9">
+        <v>10</v>
+      </c>
+      <c r="D4" s="4">
+        <v>10</v>
+      </c>
+      <c r="E4" s="9">
+        <v>10</v>
+      </c>
+      <c r="F4" s="4">
+        <v>10</v>
+      </c>
+      <c r="G4" s="9">
+        <v>10</v>
+      </c>
+      <c r="H4" s="4">
+        <v>10</v>
+      </c>
+      <c r="I4" s="9">
+        <v>10</v>
+      </c>
+      <c r="J4" s="4">
+        <v>10</v>
+      </c>
+      <c r="K4" s="9">
+        <v>10</v>
+      </c>
+      <c r="L4" s="4">
+        <v>10</v>
+      </c>
+      <c r="M4" s="9">
+        <v>10</v>
+      </c>
+      <c r="N4" s="4">
+        <v>10</v>
+      </c>
+      <c r="O4" s="9">
+        <v>10</v>
+      </c>
+      <c r="P4" s="4">
+        <v>10</v>
+      </c>
+      <c r="Q4" s="9">
+        <v>10</v>
+      </c>
+      <c r="R4" s="4">
+        <v>10</v>
+      </c>
+      <c r="S4" s="9">
+        <v>10</v>
+      </c>
+      <c r="T4" s="4">
+        <v>10</v>
+      </c>
+      <c r="U4" s="9">
+        <v>10</v>
+      </c>
+      <c r="X4" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y4" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="9"/>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="9"/>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4">
+        <v>10</v>
+      </c>
+      <c r="C7" s="9">
+        <v>10</v>
+      </c>
+      <c r="D7" s="4">
+        <v>10</v>
+      </c>
+      <c r="E7" s="9">
+        <v>10</v>
+      </c>
+      <c r="F7" s="4">
+        <v>10</v>
+      </c>
+      <c r="G7" s="9">
+        <v>10</v>
+      </c>
+      <c r="H7" s="4">
+        <v>10</v>
+      </c>
+      <c r="I7" s="9">
+        <v>10</v>
+      </c>
+      <c r="J7" s="4">
+        <v>10</v>
+      </c>
+      <c r="K7" s="9">
+        <v>10</v>
+      </c>
+      <c r="L7" s="4">
+        <v>10</v>
+      </c>
+      <c r="M7" s="9">
+        <v>10</v>
+      </c>
+      <c r="N7" s="4">
+        <v>10</v>
+      </c>
+      <c r="O7" s="9">
+        <v>10</v>
+      </c>
+      <c r="P7" s="4">
+        <v>10</v>
+      </c>
+      <c r="Q7" s="9">
+        <v>10</v>
+      </c>
+      <c r="R7" s="4">
+        <v>10</v>
+      </c>
+      <c r="S7" s="9">
+        <v>10</v>
+      </c>
+      <c r="T7" s="4">
+        <v>10</v>
+      </c>
+      <c r="U7" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="9"/>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="9"/>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4">
+        <v>10</v>
+      </c>
+      <c r="C10" s="9">
+        <v>10</v>
+      </c>
+      <c r="D10" s="4">
+        <v>10</v>
+      </c>
+      <c r="E10" s="9">
+        <v>10</v>
+      </c>
+      <c r="F10" s="4">
+        <v>10</v>
+      </c>
+      <c r="G10" s="9">
+        <v>10</v>
+      </c>
+      <c r="H10" s="4">
+        <v>10</v>
+      </c>
+      <c r="I10" s="9">
+        <v>10</v>
+      </c>
+      <c r="J10" s="4">
+        <v>10</v>
+      </c>
+      <c r="K10" s="9">
+        <v>10</v>
+      </c>
+      <c r="L10" s="4">
+        <v>10</v>
+      </c>
+      <c r="M10" s="9">
+        <v>0</v>
+      </c>
+      <c r="N10" s="4">
+        <v>10</v>
+      </c>
+      <c r="O10" s="9">
+        <v>0</v>
+      </c>
+      <c r="P10" s="4">
+        <v>10</v>
+      </c>
+      <c r="Q10" s="9">
+        <v>10</v>
+      </c>
+      <c r="R10" s="4">
+        <v>10</v>
+      </c>
+      <c r="S10" s="9">
+        <v>10</v>
+      </c>
+      <c r="T10" s="4">
+        <v>10</v>
+      </c>
+      <c r="U10" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4">
+        <v>10</v>
+      </c>
+      <c r="C11" s="9">
+        <v>10</v>
+      </c>
+      <c r="D11" s="4">
+        <v>10</v>
+      </c>
+      <c r="E11" s="9">
+        <v>10</v>
+      </c>
+      <c r="F11" s="4">
+        <v>10</v>
+      </c>
+      <c r="G11" s="9">
+        <v>10</v>
+      </c>
+      <c r="H11" s="4">
+        <v>10</v>
+      </c>
+      <c r="I11" s="9">
+        <v>10</v>
+      </c>
+      <c r="J11" s="4">
+        <v>10</v>
+      </c>
+      <c r="K11" s="9">
+        <v>10</v>
+      </c>
+      <c r="L11" s="4">
+        <v>10</v>
+      </c>
+      <c r="M11" s="9">
+        <v>0</v>
+      </c>
+      <c r="N11" s="4">
+        <v>10</v>
+      </c>
+      <c r="O11" s="9">
+        <v>0</v>
+      </c>
+      <c r="P11" s="4">
+        <v>10</v>
+      </c>
+      <c r="Q11" s="9">
+        <v>10</v>
+      </c>
+      <c r="R11" s="4">
+        <v>10</v>
+      </c>
+      <c r="S11" s="9">
+        <v>10</v>
+      </c>
+      <c r="T11" s="4">
+        <v>10</v>
+      </c>
+      <c r="U11" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4">
+        <v>10</v>
+      </c>
+      <c r="C12" s="9">
+        <v>10</v>
+      </c>
+      <c r="D12" s="4">
+        <v>10</v>
+      </c>
+      <c r="E12" s="9">
+        <v>10</v>
+      </c>
+      <c r="F12" s="4">
+        <v>10</v>
+      </c>
+      <c r="G12" s="9">
+        <v>10</v>
+      </c>
+      <c r="H12" s="4">
+        <v>10</v>
+      </c>
+      <c r="I12" s="9">
+        <v>10</v>
+      </c>
+      <c r="J12" s="4">
+        <v>0</v>
+      </c>
+      <c r="K12" s="9">
+        <v>10</v>
+      </c>
+      <c r="L12" s="4">
+        <v>10</v>
+      </c>
+      <c r="M12" s="9">
+        <v>0</v>
+      </c>
+      <c r="N12" s="4">
+        <v>10</v>
+      </c>
+      <c r="O12" s="9">
+        <v>0</v>
+      </c>
+      <c r="P12" s="4">
+        <v>10</v>
+      </c>
+      <c r="Q12" s="9">
+        <v>10</v>
+      </c>
+      <c r="R12" s="4">
+        <v>10</v>
+      </c>
+      <c r="S12" s="9">
+        <v>0</v>
+      </c>
+      <c r="T12" s="4">
+        <v>10</v>
+      </c>
+      <c r="U12" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="9"/>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="9"/>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="4">
+        <v>10</v>
+      </c>
+      <c r="C15" s="9">
+        <v>10</v>
+      </c>
+      <c r="D15" s="4">
+        <v>10</v>
+      </c>
+      <c r="E15" s="9">
+        <v>10</v>
+      </c>
+      <c r="F15" s="4">
+        <v>10</v>
+      </c>
+      <c r="G15" s="9">
+        <v>10</v>
+      </c>
+      <c r="H15" s="4">
+        <v>10</v>
+      </c>
+      <c r="I15" s="9">
+        <v>10</v>
+      </c>
+      <c r="J15" s="4">
+        <v>0</v>
+      </c>
+      <c r="K15" s="9">
+        <v>0</v>
+      </c>
+      <c r="L15" s="4">
+        <v>10</v>
+      </c>
+      <c r="M15" s="9">
+        <v>0</v>
+      </c>
+      <c r="N15" s="4">
+        <v>10</v>
+      </c>
+      <c r="O15" s="9">
+        <v>0</v>
+      </c>
+      <c r="P15" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="9">
+        <v>10</v>
+      </c>
+      <c r="R15" s="4">
+        <v>10</v>
+      </c>
+      <c r="S15" s="9">
+        <v>0</v>
+      </c>
+      <c r="T15" s="4">
+        <v>10</v>
+      </c>
+      <c r="U15" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="4">
+        <v>10</v>
+      </c>
+      <c r="C16" s="9">
+        <v>10</v>
+      </c>
+      <c r="D16" s="4">
+        <v>10</v>
+      </c>
+      <c r="E16" s="9">
+        <v>10</v>
+      </c>
+      <c r="F16" s="4">
+        <v>10</v>
+      </c>
+      <c r="G16" s="9">
+        <v>10</v>
+      </c>
+      <c r="H16" s="4">
+        <v>10</v>
+      </c>
+      <c r="I16" s="9">
+        <v>10</v>
+      </c>
+      <c r="J16" s="4">
+        <v>0</v>
+      </c>
+      <c r="K16" s="9">
+        <v>0</v>
+      </c>
+      <c r="L16" s="4">
+        <v>10</v>
+      </c>
+      <c r="M16" s="9">
+        <v>0</v>
+      </c>
+      <c r="N16" s="4">
+        <v>10</v>
+      </c>
+      <c r="O16" s="9">
+        <v>0</v>
+      </c>
+      <c r="P16" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="9">
+        <v>10</v>
+      </c>
+      <c r="R16" s="4">
+        <v>10</v>
+      </c>
+      <c r="S16" s="9">
+        <v>0</v>
+      </c>
+      <c r="T16" s="4">
+        <v>10</v>
+      </c>
+      <c r="U16" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="4">
+        <v>10</v>
+      </c>
+      <c r="C17" s="9">
+        <v>10</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0</v>
+      </c>
+      <c r="E17" s="9">
+        <v>10</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0</v>
+      </c>
+      <c r="G17" s="9">
+        <v>10</v>
+      </c>
+      <c r="H17" s="4">
+        <v>10</v>
+      </c>
+      <c r="I17" s="9">
+        <v>10</v>
+      </c>
+      <c r="J17" s="4">
+        <v>0</v>
+      </c>
+      <c r="K17" s="9">
+        <v>0</v>
+      </c>
+      <c r="L17" s="4">
+        <v>10</v>
+      </c>
+      <c r="M17" s="9">
+        <v>0</v>
+      </c>
+      <c r="N17" s="4">
+        <v>0</v>
+      </c>
+      <c r="O17" s="9">
+        <v>0</v>
+      </c>
+      <c r="P17" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="9">
+        <v>10</v>
+      </c>
+      <c r="R17" s="4">
+        <v>0</v>
+      </c>
+      <c r="S17" s="9">
+        <v>0</v>
+      </c>
+      <c r="T17" s="4">
+        <v>10</v>
+      </c>
+      <c r="U17" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="9"/>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="4">
+        <v>10</v>
+      </c>
+      <c r="C19" s="9">
+        <v>10</v>
+      </c>
+      <c r="D19" s="4">
+        <v>10</v>
+      </c>
+      <c r="E19" s="9">
+        <v>10</v>
+      </c>
+      <c r="F19" s="4">
+        <v>10</v>
+      </c>
+      <c r="G19" s="9">
+        <v>10</v>
+      </c>
+      <c r="H19" s="4">
+        <v>10</v>
+      </c>
+      <c r="I19" s="9">
+        <v>10</v>
+      </c>
+      <c r="J19" s="4">
+        <v>10</v>
+      </c>
+      <c r="K19" s="9">
+        <v>10</v>
+      </c>
+      <c r="L19" s="4">
+        <v>10</v>
+      </c>
+      <c r="M19" s="9">
+        <v>0</v>
+      </c>
+      <c r="N19" s="4">
+        <v>10</v>
+      </c>
+      <c r="O19" s="9">
+        <v>0</v>
+      </c>
+      <c r="P19" s="4">
+        <v>10</v>
+      </c>
+      <c r="Q19" s="9">
+        <v>10</v>
+      </c>
+      <c r="R19" s="4">
+        <v>10</v>
+      </c>
+      <c r="S19" s="9">
+        <v>10</v>
+      </c>
+      <c r="T19" s="4">
+        <v>10</v>
+      </c>
+      <c r="U19" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="4">
+        <v>0</v>
+      </c>
+      <c r="C20" s="9">
+        <v>10</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0</v>
+      </c>
+      <c r="E20" s="9">
+        <v>0</v>
+      </c>
+      <c r="F20" s="4">
+        <v>0</v>
+      </c>
+      <c r="G20" s="9">
+        <v>0</v>
+      </c>
+      <c r="H20" s="4">
+        <v>0</v>
+      </c>
+      <c r="I20" s="9">
+        <v>0</v>
+      </c>
+      <c r="J20" s="4">
+        <v>0</v>
+      </c>
+      <c r="K20" s="9">
+        <v>10</v>
+      </c>
+      <c r="L20" s="4">
+        <v>0</v>
+      </c>
+      <c r="M20" s="9">
+        <v>0</v>
+      </c>
+      <c r="N20" s="4">
+        <v>0</v>
+      </c>
+      <c r="O20" s="9">
+        <v>0</v>
+      </c>
+      <c r="P20" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="9">
+        <v>10</v>
+      </c>
+      <c r="R20" s="4">
+        <v>0</v>
+      </c>
+      <c r="S20" s="9">
+        <v>0</v>
+      </c>
+      <c r="T20" s="4">
+        <v>10</v>
+      </c>
+      <c r="U20" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="9"/>
+      <c r="T21" s="4"/>
+      <c r="U21" s="9"/>
+    </row>
+    <row r="22" spans="1:21" ht="36" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="4">
+        <v>10</v>
+      </c>
+      <c r="C22" s="9">
+        <v>10</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0</v>
+      </c>
+      <c r="E22" s="9">
+        <v>10</v>
+      </c>
+      <c r="F22" s="4">
+        <v>10</v>
+      </c>
+      <c r="G22" s="9">
+        <v>10</v>
+      </c>
+      <c r="H22" s="4">
+        <v>10</v>
+      </c>
+      <c r="I22" s="9">
+        <v>0</v>
+      </c>
+      <c r="J22" s="4">
+        <v>10</v>
+      </c>
+      <c r="K22" s="9"/>
+      <c r="L22" s="4">
+        <v>10</v>
+      </c>
+      <c r="M22" s="9">
+        <v>0</v>
+      </c>
+      <c r="N22" s="4">
+        <v>10</v>
+      </c>
+      <c r="O22" s="9">
+        <v>0</v>
+      </c>
+      <c r="P22" s="4">
+        <v>10</v>
+      </c>
+      <c r="Q22" s="9">
+        <v>10</v>
+      </c>
+      <c r="R22" s="4">
+        <v>10</v>
+      </c>
+      <c r="S22" s="9">
+        <v>0</v>
+      </c>
+      <c r="T22" s="4">
+        <v>10</v>
+      </c>
+      <c r="U22" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="4">
+        <v>10</v>
+      </c>
+      <c r="C23" s="9">
+        <v>10</v>
+      </c>
+      <c r="D23" s="4">
+        <v>10</v>
+      </c>
+      <c r="E23" s="9">
+        <v>10</v>
+      </c>
+      <c r="F23" s="4">
+        <v>10</v>
+      </c>
+      <c r="G23" s="9">
+        <v>10</v>
+      </c>
+      <c r="H23" s="4">
+        <v>10</v>
+      </c>
+      <c r="I23" s="9">
+        <v>10</v>
+      </c>
+      <c r="J23" s="4">
+        <v>10</v>
+      </c>
+      <c r="K23" s="9">
+        <v>10</v>
+      </c>
+      <c r="L23" s="4">
+        <v>10</v>
+      </c>
+      <c r="M23" s="9">
+        <v>0</v>
+      </c>
+      <c r="N23" s="4">
+        <v>10</v>
+      </c>
+      <c r="O23" s="9">
+        <v>0</v>
+      </c>
+      <c r="P23" s="4">
+        <v>10</v>
+      </c>
+      <c r="Q23" s="9">
+        <v>10</v>
+      </c>
+      <c r="R23" s="4">
+        <v>10</v>
+      </c>
+      <c r="S23" s="9">
+        <v>10</v>
+      </c>
+      <c r="T23" s="4">
+        <v>10</v>
+      </c>
+      <c r="U23" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="4"/>
+      <c r="S24" s="9"/>
+      <c r="T24" s="4"/>
+      <c r="U24" s="9"/>
+    </row>
+    <row r="25" spans="1:21" ht="24" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="4">
+        <v>10</v>
+      </c>
+      <c r="C25" s="9">
+        <v>10</v>
+      </c>
+      <c r="D25" s="4">
+        <v>10</v>
+      </c>
+      <c r="E25" s="9">
+        <v>10</v>
+      </c>
+      <c r="F25" s="4">
+        <v>10</v>
+      </c>
+      <c r="G25" s="9">
+        <v>10</v>
+      </c>
+      <c r="H25" s="4">
+        <v>10</v>
+      </c>
+      <c r="I25" s="9">
+        <v>10</v>
+      </c>
+      <c r="J25" s="4">
+        <v>10</v>
+      </c>
+      <c r="K25" s="9">
+        <v>10</v>
+      </c>
+      <c r="L25" s="4">
+        <v>10</v>
+      </c>
+      <c r="M25" s="9">
+        <v>0</v>
+      </c>
+      <c r="N25" s="4">
+        <v>10</v>
+      </c>
+      <c r="O25" s="9">
+        <v>0</v>
+      </c>
+      <c r="P25" s="4">
+        <v>10</v>
+      </c>
+      <c r="Q25" s="9">
+        <v>10</v>
+      </c>
+      <c r="R25" s="4">
+        <v>10</v>
+      </c>
+      <c r="S25" s="9">
+        <v>10</v>
+      </c>
+      <c r="T25" s="4">
+        <v>10</v>
+      </c>
+      <c r="U25" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="4">
+        <v>10</v>
+      </c>
+      <c r="C26" s="9">
+        <v>10</v>
+      </c>
+      <c r="D26" s="4">
+        <v>10</v>
+      </c>
+      <c r="E26" s="9">
+        <v>10</v>
+      </c>
+      <c r="F26" s="4">
+        <v>0</v>
+      </c>
+      <c r="G26" s="9">
+        <v>10</v>
+      </c>
+      <c r="H26" s="4">
+        <v>10</v>
+      </c>
+      <c r="I26" s="9">
+        <v>10</v>
+      </c>
+      <c r="J26" s="4">
+        <v>10</v>
+      </c>
+      <c r="K26" s="9">
+        <v>10</v>
+      </c>
+      <c r="L26" s="4">
+        <v>10</v>
+      </c>
+      <c r="M26" s="9">
+        <v>0</v>
+      </c>
+      <c r="N26" s="4">
+        <v>10</v>
+      </c>
+      <c r="O26" s="9">
+        <v>0</v>
+      </c>
+      <c r="P26" s="4">
+        <v>10</v>
+      </c>
+      <c r="Q26" s="9">
+        <v>10</v>
+      </c>
+      <c r="R26" s="4">
+        <v>10</v>
+      </c>
+      <c r="S26" s="9">
+        <v>10</v>
+      </c>
+      <c r="T26" s="4">
+        <v>10</v>
+      </c>
+      <c r="U26" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="4"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="9"/>
+      <c r="R27" s="4"/>
+      <c r="S27" s="9"/>
+      <c r="T27" s="4"/>
+      <c r="U27" s="9"/>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="4">
+        <v>10</v>
+      </c>
+      <c r="C28" s="9">
+        <v>10</v>
+      </c>
+      <c r="D28" s="4">
+        <v>10</v>
+      </c>
+      <c r="E28" s="9">
+        <v>10</v>
+      </c>
+      <c r="F28" s="4">
+        <v>10</v>
+      </c>
+      <c r="G28" s="9">
+        <v>10</v>
+      </c>
+      <c r="H28" s="4">
+        <v>10</v>
+      </c>
+      <c r="I28" s="9">
+        <v>0</v>
+      </c>
+      <c r="J28" s="4">
+        <v>10</v>
+      </c>
+      <c r="K28" s="9">
+        <v>10</v>
+      </c>
+      <c r="L28" s="4">
+        <v>10</v>
+      </c>
+      <c r="M28" s="9">
+        <v>0</v>
+      </c>
+      <c r="N28" s="4">
+        <v>10</v>
+      </c>
+      <c r="O28" s="9">
+        <v>0</v>
+      </c>
+      <c r="P28" s="4">
+        <v>10</v>
+      </c>
+      <c r="Q28" s="9">
+        <v>10</v>
+      </c>
+      <c r="R28" s="4">
+        <v>10</v>
+      </c>
+      <c r="S28" s="9">
+        <v>10</v>
+      </c>
+      <c r="T28" s="4">
+        <v>10</v>
+      </c>
+      <c r="U28" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="4">
+        <v>10</v>
+      </c>
+      <c r="C29" s="9">
+        <v>10</v>
+      </c>
+      <c r="D29" s="4">
+        <v>10</v>
+      </c>
+      <c r="E29" s="9">
+        <v>10</v>
+      </c>
+      <c r="F29" s="4">
+        <v>10</v>
+      </c>
+      <c r="G29" s="9">
+        <v>10</v>
+      </c>
+      <c r="H29" s="4">
+        <v>10</v>
+      </c>
+      <c r="I29" s="9">
+        <v>10</v>
+      </c>
+      <c r="J29" s="4">
+        <v>10</v>
+      </c>
+      <c r="K29" s="9">
+        <v>10</v>
+      </c>
+      <c r="L29" s="4">
+        <v>10</v>
+      </c>
+      <c r="M29" s="9">
+        <v>0</v>
+      </c>
+      <c r="N29" s="4">
+        <v>10</v>
+      </c>
+      <c r="O29" s="9">
+        <v>0</v>
+      </c>
+      <c r="P29" s="4">
+        <v>10</v>
+      </c>
+      <c r="Q29" s="9">
+        <v>10</v>
+      </c>
+      <c r="R29" s="4">
+        <v>10</v>
+      </c>
+      <c r="S29" s="9">
+        <v>10</v>
+      </c>
+      <c r="T29" s="4">
+        <v>10</v>
+      </c>
+      <c r="U29" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="4">
+        <v>10</v>
+      </c>
+      <c r="C30" s="9">
+        <v>10</v>
+      </c>
+      <c r="D30" s="4">
+        <v>10</v>
+      </c>
+      <c r="E30" s="9">
+        <v>10</v>
+      </c>
+      <c r="F30" s="4">
+        <v>10</v>
+      </c>
+      <c r="G30" s="9">
+        <v>10</v>
+      </c>
+      <c r="H30" s="4">
+        <v>10</v>
+      </c>
+      <c r="I30" s="9">
+        <v>10</v>
+      </c>
+      <c r="J30" s="4">
+        <v>10</v>
+      </c>
+      <c r="K30" s="9">
+        <v>10</v>
+      </c>
+      <c r="L30" s="4">
+        <v>5</v>
+      </c>
+      <c r="M30" s="9">
+        <v>0</v>
+      </c>
+      <c r="N30" s="4">
+        <v>10</v>
+      </c>
+      <c r="O30" s="9">
+        <v>0</v>
+      </c>
+      <c r="P30" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="9">
+        <v>10</v>
+      </c>
+      <c r="R30" s="4">
+        <v>10</v>
+      </c>
+      <c r="S30" s="9">
+        <v>10</v>
+      </c>
+      <c r="T30" s="4">
+        <v>10</v>
+      </c>
+      <c r="U30" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="4"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="9"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="9"/>
+      <c r="R31" s="4"/>
+      <c r="S31" s="9"/>
+      <c r="T31" s="4"/>
+      <c r="U31" s="9"/>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="4">
+        <v>10</v>
+      </c>
+      <c r="C32" s="9">
+        <v>10</v>
+      </c>
+      <c r="D32" s="4">
+        <v>10</v>
+      </c>
+      <c r="E32" s="9">
+        <v>10</v>
+      </c>
+      <c r="F32" s="4">
+        <v>10</v>
+      </c>
+      <c r="G32" s="9">
+        <v>10</v>
+      </c>
+      <c r="H32" s="4">
+        <v>10</v>
+      </c>
+      <c r="I32" s="9">
+        <v>10</v>
+      </c>
+      <c r="J32" s="4">
+        <v>10</v>
+      </c>
+      <c r="K32" s="9">
+        <v>10</v>
+      </c>
+      <c r="L32" s="4">
+        <v>10</v>
+      </c>
+      <c r="M32" s="9">
+        <v>0</v>
+      </c>
+      <c r="N32" s="4">
+        <v>10</v>
+      </c>
+      <c r="O32" s="9">
+        <v>0</v>
+      </c>
+      <c r="P32" s="4">
+        <v>10</v>
+      </c>
+      <c r="Q32" s="9">
+        <v>10</v>
+      </c>
+      <c r="R32" s="4">
+        <v>10</v>
+      </c>
+      <c r="S32" s="9">
+        <v>10</v>
+      </c>
+      <c r="T32" s="4">
+        <v>10</v>
+      </c>
+      <c r="U32" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="4">
+        <v>10</v>
+      </c>
+      <c r="C33" s="9">
+        <v>10</v>
+      </c>
+      <c r="D33" s="4">
+        <v>10</v>
+      </c>
+      <c r="E33" s="9">
+        <v>10</v>
+      </c>
+      <c r="F33" s="4">
+        <v>0</v>
+      </c>
+      <c r="G33" s="9">
+        <v>10</v>
+      </c>
+      <c r="H33" s="4">
+        <v>10</v>
+      </c>
+      <c r="I33" s="9">
+        <v>0</v>
+      </c>
+      <c r="J33" s="4">
+        <v>10</v>
+      </c>
+      <c r="K33" s="9">
+        <v>10</v>
+      </c>
+      <c r="L33" s="4">
+        <v>10</v>
+      </c>
+      <c r="M33" s="9">
+        <v>0</v>
+      </c>
+      <c r="N33" s="4">
+        <v>10</v>
+      </c>
+      <c r="O33" s="9">
+        <v>0</v>
+      </c>
+      <c r="P33" s="4">
+        <v>5</v>
+      </c>
+      <c r="Q33" s="9">
+        <v>10</v>
+      </c>
+      <c r="R33" s="4">
+        <v>10</v>
+      </c>
+      <c r="S33" s="9">
+        <v>10</v>
+      </c>
+      <c r="T33" s="4">
+        <v>10</v>
+      </c>
+      <c r="U33" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="4"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="9"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="9"/>
+      <c r="R34" s="4"/>
+      <c r="S34" s="9"/>
+      <c r="T34" s="4"/>
+      <c r="U34" s="9"/>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="4">
+        <v>10</v>
+      </c>
+      <c r="C35" s="9">
+        <v>10</v>
+      </c>
+      <c r="D35" s="4">
+        <v>10</v>
+      </c>
+      <c r="E35" s="9">
+        <v>10</v>
+      </c>
+      <c r="F35" s="4">
+        <v>0</v>
+      </c>
+      <c r="G35" s="9">
+        <v>10</v>
+      </c>
+      <c r="H35" s="4">
+        <v>10</v>
+      </c>
+      <c r="I35" s="9">
+        <v>0</v>
+      </c>
+      <c r="J35" s="4">
+        <v>10</v>
+      </c>
+      <c r="K35" s="9">
+        <v>10</v>
+      </c>
+      <c r="L35" s="4">
+        <v>10</v>
+      </c>
+      <c r="M35" s="9">
+        <v>0</v>
+      </c>
+      <c r="N35" s="4">
+        <v>10</v>
+      </c>
+      <c r="O35" s="9">
+        <v>0</v>
+      </c>
+      <c r="P35" s="4">
+        <v>10</v>
+      </c>
+      <c r="Q35" s="9">
+        <v>10</v>
+      </c>
+      <c r="R35" s="4">
+        <v>10</v>
+      </c>
+      <c r="S35" s="9">
+        <v>10</v>
+      </c>
+      <c r="T35" s="4">
+        <v>10</v>
+      </c>
+      <c r="U35" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" s="4">
+        <v>10</v>
+      </c>
+      <c r="C36" s="9">
+        <v>10</v>
+      </c>
+      <c r="D36" s="4">
+        <v>10</v>
+      </c>
+      <c r="E36" s="9">
+        <v>10</v>
+      </c>
+      <c r="F36" s="4">
+        <v>0</v>
+      </c>
+      <c r="G36" s="9">
+        <v>10</v>
+      </c>
+      <c r="H36" s="4">
+        <v>10</v>
+      </c>
+      <c r="I36" s="9">
+        <v>0</v>
+      </c>
+      <c r="J36" s="4">
+        <v>10</v>
+      </c>
+      <c r="K36" s="9">
+        <v>10</v>
+      </c>
+      <c r="L36" s="4">
+        <v>10</v>
+      </c>
+      <c r="M36" s="9">
+        <v>0</v>
+      </c>
+      <c r="N36" s="4">
+        <v>10</v>
+      </c>
+      <c r="O36" s="9">
+        <v>0</v>
+      </c>
+      <c r="P36" s="4">
+        <v>10</v>
+      </c>
+      <c r="Q36" s="9">
+        <v>10</v>
+      </c>
+      <c r="R36" s="4">
+        <v>10</v>
+      </c>
+      <c r="S36" s="9">
+        <v>10</v>
+      </c>
+      <c r="T36" s="4">
+        <v>10</v>
+      </c>
+      <c r="U36" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="4">
+        <v>0</v>
+      </c>
+      <c r="C37" s="9">
+        <v>10</v>
+      </c>
+      <c r="D37" s="4">
+        <v>10</v>
+      </c>
+      <c r="E37" s="9">
+        <v>10</v>
+      </c>
+      <c r="F37" s="4">
+        <v>10</v>
+      </c>
+      <c r="G37" s="9">
+        <v>10</v>
+      </c>
+      <c r="H37" s="4">
+        <v>0</v>
+      </c>
+      <c r="I37" s="9">
+        <v>0</v>
+      </c>
+      <c r="J37" s="4">
+        <v>0</v>
+      </c>
+      <c r="K37" s="9">
+        <v>10</v>
+      </c>
+      <c r="L37" s="4">
+        <v>10</v>
+      </c>
+      <c r="M37" s="9">
+        <v>0</v>
+      </c>
+      <c r="N37" s="4">
+        <v>0</v>
+      </c>
+      <c r="O37" s="9">
+        <v>0</v>
+      </c>
+      <c r="P37" s="4">
+        <v>10</v>
+      </c>
+      <c r="Q37" s="9">
+        <v>10</v>
+      </c>
+      <c r="R37" s="4">
+        <v>10</v>
+      </c>
+      <c r="S37" s="9">
+        <v>0</v>
+      </c>
+      <c r="T37" s="4">
+        <v>10</v>
+      </c>
+      <c r="U37" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" s="4">
+        <v>0</v>
+      </c>
+      <c r="C38" s="9">
+        <v>10</v>
+      </c>
+      <c r="D38" s="4">
+        <v>10</v>
+      </c>
+      <c r="E38" s="9">
+        <v>10</v>
+      </c>
+      <c r="F38" s="4">
+        <v>0</v>
+      </c>
+      <c r="G38" s="9">
+        <v>10</v>
+      </c>
+      <c r="H38" s="4">
+        <v>0</v>
+      </c>
+      <c r="I38" s="9">
+        <v>0</v>
+      </c>
+      <c r="J38" s="4">
+        <v>0</v>
+      </c>
+      <c r="K38" s="9">
+        <v>0</v>
+      </c>
+      <c r="L38" s="4">
+        <v>10</v>
+      </c>
+      <c r="M38" s="9">
+        <v>0</v>
+      </c>
+      <c r="N38" s="4">
+        <v>0</v>
+      </c>
+      <c r="O38" s="9">
+        <v>0</v>
+      </c>
+      <c r="P38" s="4">
+        <v>10</v>
+      </c>
+      <c r="Q38" s="9">
+        <v>10</v>
+      </c>
+      <c r="R38" s="4">
+        <v>10</v>
+      </c>
+      <c r="S38" s="9">
+        <v>0</v>
+      </c>
+      <c r="T38" s="4">
+        <v>10</v>
+      </c>
+      <c r="U38" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" s="4"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="4"/>
+      <c r="O39" s="9"/>
+      <c r="P39" s="4"/>
+      <c r="Q39" s="9"/>
+      <c r="R39" s="4"/>
+      <c r="S39" s="9"/>
+      <c r="T39" s="4"/>
+      <c r="U39" s="9"/>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" s="4">
+        <v>10</v>
+      </c>
+      <c r="C40" s="9">
+        <v>10</v>
+      </c>
+      <c r="D40" s="4">
+        <v>10</v>
+      </c>
+      <c r="E40" s="9">
+        <v>10</v>
+      </c>
+      <c r="F40" s="4">
+        <v>10</v>
+      </c>
+      <c r="G40" s="9">
+        <v>10</v>
+      </c>
+      <c r="H40" s="4">
+        <v>10</v>
+      </c>
+      <c r="I40" s="9">
+        <v>0</v>
+      </c>
+      <c r="J40" s="4">
+        <v>10</v>
+      </c>
+      <c r="K40" s="9">
+        <v>0</v>
+      </c>
+      <c r="L40" s="4">
+        <v>10</v>
+      </c>
+      <c r="M40" s="9">
+        <v>0</v>
+      </c>
+      <c r="N40" s="4">
+        <v>10</v>
+      </c>
+      <c r="O40" s="9">
+        <v>0</v>
+      </c>
+      <c r="P40" s="4">
+        <v>10</v>
+      </c>
+      <c r="Q40" s="9">
+        <v>10</v>
+      </c>
+      <c r="R40" s="4">
+        <v>10</v>
+      </c>
+      <c r="S40" s="9">
+        <v>10</v>
+      </c>
+      <c r="T40" s="4">
+        <v>10</v>
+      </c>
+      <c r="U40" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" s="4">
+        <v>10</v>
+      </c>
+      <c r="C41" s="9">
+        <v>10</v>
+      </c>
+      <c r="D41" s="4">
+        <v>10</v>
+      </c>
+      <c r="E41" s="9">
+        <v>10</v>
+      </c>
+      <c r="F41" s="4">
+        <v>10</v>
+      </c>
+      <c r="G41" s="9">
+        <v>10</v>
+      </c>
+      <c r="H41" s="4">
+        <v>10</v>
+      </c>
+      <c r="I41" s="9">
+        <v>0</v>
+      </c>
+      <c r="J41" s="4">
+        <v>10</v>
+      </c>
+      <c r="K41" s="9">
+        <v>0</v>
+      </c>
+      <c r="L41" s="4">
+        <v>10</v>
+      </c>
+      <c r="M41" s="9">
+        <v>0</v>
+      </c>
+      <c r="N41" s="4">
+        <v>10</v>
+      </c>
+      <c r="O41" s="9">
+        <v>0</v>
+      </c>
+      <c r="P41" s="4">
+        <v>10</v>
+      </c>
+      <c r="Q41" s="9">
+        <v>10</v>
+      </c>
+      <c r="R41" s="4">
+        <v>10</v>
+      </c>
+      <c r="S41" s="9">
+        <v>10</v>
+      </c>
+      <c r="T41" s="4">
+        <v>10</v>
+      </c>
+      <c r="U41" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" s="4">
+        <v>10</v>
+      </c>
+      <c r="C42" s="9">
+        <v>10</v>
+      </c>
+      <c r="D42" s="4">
+        <v>10</v>
+      </c>
+      <c r="E42" s="9">
+        <v>10</v>
+      </c>
+      <c r="F42" s="4">
+        <v>10</v>
+      </c>
+      <c r="G42" s="9">
+        <v>10</v>
+      </c>
+      <c r="H42" s="4">
+        <v>0</v>
+      </c>
+      <c r="I42" s="9">
+        <v>0</v>
+      </c>
+      <c r="J42" s="4">
+        <v>10</v>
+      </c>
+      <c r="K42" s="9">
+        <v>0</v>
+      </c>
+      <c r="L42" s="4">
+        <v>10</v>
+      </c>
+      <c r="M42" s="9">
+        <v>0</v>
+      </c>
+      <c r="N42" s="4">
+        <v>10</v>
+      </c>
+      <c r="O42" s="9">
+        <v>0</v>
+      </c>
+      <c r="P42" s="4">
+        <v>10</v>
+      </c>
+      <c r="Q42" s="9">
+        <v>10</v>
+      </c>
+      <c r="R42" s="4">
+        <v>10</v>
+      </c>
+      <c r="S42" s="9">
+        <v>10</v>
+      </c>
+      <c r="T42" s="4">
+        <v>10</v>
+      </c>
+      <c r="U42" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" s="4"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="9"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="9"/>
+      <c r="N43" s="4"/>
+      <c r="O43" s="9"/>
+      <c r="P43" s="4"/>
+      <c r="Q43" s="9"/>
+      <c r="R43" s="4"/>
+      <c r="S43" s="9"/>
+      <c r="T43" s="4"/>
+      <c r="U43" s="9"/>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44" s="4">
+        <v>10</v>
+      </c>
+      <c r="C44" s="9">
+        <v>10</v>
+      </c>
+      <c r="D44" s="4">
+        <v>10</v>
+      </c>
+      <c r="E44" s="9">
+        <v>10</v>
+      </c>
+      <c r="F44" s="4">
+        <v>10</v>
+      </c>
+      <c r="G44" s="9">
+        <v>10</v>
+      </c>
+      <c r="H44" s="4">
+        <v>0</v>
+      </c>
+      <c r="I44" s="9">
+        <v>0</v>
+      </c>
+      <c r="J44" s="4">
+        <v>10</v>
+      </c>
+      <c r="K44" s="9">
+        <v>0</v>
+      </c>
+      <c r="L44" s="4">
+        <v>10</v>
+      </c>
+      <c r="M44" s="9">
+        <v>0</v>
+      </c>
+      <c r="N44" s="4">
+        <v>10</v>
+      </c>
+      <c r="O44" s="9">
+        <v>0</v>
+      </c>
+      <c r="P44" s="4">
+        <v>10</v>
+      </c>
+      <c r="Q44" s="9">
+        <v>10</v>
+      </c>
+      <c r="R44" s="4">
+        <v>10</v>
+      </c>
+      <c r="S44" s="9">
+        <v>10</v>
+      </c>
+      <c r="T44" s="4">
+        <v>10</v>
+      </c>
+      <c r="U44" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45" s="4">
+        <v>10</v>
+      </c>
+      <c r="C45" s="9">
+        <v>10</v>
+      </c>
+      <c r="D45" s="4">
+        <v>10</v>
+      </c>
+      <c r="E45" s="9">
+        <v>10</v>
+      </c>
+      <c r="F45" s="4">
+        <v>10</v>
+      </c>
+      <c r="G45" s="9">
+        <v>10</v>
+      </c>
+      <c r="H45" s="4">
+        <v>0</v>
+      </c>
+      <c r="I45" s="9">
+        <v>0</v>
+      </c>
+      <c r="J45" s="4">
+        <v>10</v>
+      </c>
+      <c r="K45" s="9">
+        <v>0</v>
+      </c>
+      <c r="L45" s="4">
+        <v>10</v>
+      </c>
+      <c r="M45" s="9">
+        <v>0</v>
+      </c>
+      <c r="N45" s="4">
+        <v>10</v>
+      </c>
+      <c r="O45" s="9">
+        <v>0</v>
+      </c>
+      <c r="P45" s="4">
+        <v>10</v>
+      </c>
+      <c r="Q45" s="9">
+        <v>10</v>
+      </c>
+      <c r="R45" s="4">
+        <v>10</v>
+      </c>
+      <c r="S45" s="9">
+        <v>10</v>
+      </c>
+      <c r="T45" s="4">
+        <v>10</v>
+      </c>
+      <c r="U45" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B46" s="4">
+        <v>10</v>
+      </c>
+      <c r="C46" s="9">
+        <v>10</v>
+      </c>
+      <c r="D46" s="4">
+        <v>10</v>
+      </c>
+      <c r="E46" s="9">
+        <v>10</v>
+      </c>
+      <c r="F46" s="4">
+        <v>10</v>
+      </c>
+      <c r="G46" s="9">
+        <v>10</v>
+      </c>
+      <c r="H46" s="4">
+        <v>0</v>
+      </c>
+      <c r="I46" s="9">
+        <v>0</v>
+      </c>
+      <c r="J46" s="4">
+        <v>10</v>
+      </c>
+      <c r="K46" s="9">
+        <v>0</v>
+      </c>
+      <c r="L46" s="4">
+        <v>10</v>
+      </c>
+      <c r="M46" s="9">
+        <v>0</v>
+      </c>
+      <c r="N46" s="4">
+        <v>10</v>
+      </c>
+      <c r="O46" s="9">
+        <v>0</v>
+      </c>
+      <c r="P46" s="4">
+        <v>10</v>
+      </c>
+      <c r="Q46" s="9">
+        <v>10</v>
+      </c>
+      <c r="R46" s="4">
+        <v>10</v>
+      </c>
+      <c r="S46" s="9">
+        <v>10</v>
+      </c>
+      <c r="T46" s="4">
+        <v>10</v>
+      </c>
+      <c r="U46" s="9">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/planejamento/sprint-1-criterios.xlsx
+++ b/planejamento/sprint-1-criterios.xlsx
@@ -4,11 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="bd-1-m" sheetId="1" r:id="rId1"/>
     <sheet name="bd-1-t" sheetId="2" r:id="rId2"/>
+    <sheet name="backend-2-m" sheetId="3" r:id="rId3"/>
+    <sheet name="backend-2-t" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="120">
   <si>
     <t>1. Identificar as características de banco de dados relacionais e não-relacionais</t>
   </si>
@@ -284,6 +286,102 @@
   </si>
   <si>
     <t>VINICIUS</t>
+  </si>
+  <si>
+    <t>1. Identificar as características de programação backend em ambiente web</t>
+  </si>
+  <si>
+    <t>Identificou as características dos verbos HTTP (GET, POST, PUT, DELETE)</t>
+  </si>
+  <si>
+    <t>Identificou as diferenças entre um aplicativo WebAPI e um WebMVC</t>
+  </si>
+  <si>
+    <t>2. Preparar o ambiente necessário ao desenvolvimento back-end para a plataforma web</t>
+  </si>
+  <si>
+    <t>Utilizou o Visual Studio para criação do novo projeto WebAPI</t>
+  </si>
+  <si>
+    <t>Utilizou o prompt de comando para criar um novo projeto WebAPI</t>
+  </si>
+  <si>
+    <t>4. Utilizar design patterns no desenvolvimento da aplicação web</t>
+  </si>
+  <si>
+    <t>Criou uma solução com a separação de pastas correta (domínio, repositório e controles) de acordo com a situação problema e seguindo as boas práticas</t>
+  </si>
+  <si>
+    <t>Utilizou os verbos corretos na criação dos endpoints</t>
+  </si>
+  <si>
+    <t>Retornou os dados após cadastro de um novo registro (especialidades, prontuários)</t>
+  </si>
+  <si>
+    <t>10. Desenvolver sistemas web de acordo com as regras de negócio estabelecidas</t>
+  </si>
+  <si>
+    <t>Não permitiu que uma consulta fosse inserida sem um médico vinculado</t>
+  </si>
+  <si>
+    <t>Não permitiu que uma consulta fosse inserida sem data de consulta</t>
+  </si>
+  <si>
+    <t>5. Definir os frameworks a serem utilizados no desenvolvimento da aplicação web</t>
+  </si>
+  <si>
+    <t>Os dados são salvos na base de dados utilizando um ORM</t>
+  </si>
+  <si>
+    <t>6. Utilizar interações com base de dados para desenvolvimento de sistemas web</t>
+  </si>
+  <si>
+    <t>Conectou-se a base de dados local utilizando o SQLServer cliente</t>
+  </si>
+  <si>
+    <t>Realizou as operações de leitura, inserção, deleção e atualização (CRUD – Create, Read, Update, Delete) com o banco de dados</t>
+  </si>
+  <si>
+    <t>9. Desenvolver API (web services) para integração de dados entre plataformas</t>
+  </si>
+  <si>
+    <t>Criou os endpoints de acesso conforme situação problema</t>
+  </si>
+  <si>
+    <t>Restringiu o acesso apenas a usuários autenticados e autorizados conforme situação problema</t>
+  </si>
+  <si>
+    <t>3. Definir os elementos de entrada, processamento e saída para a programação da aplicação web</t>
+  </si>
+  <si>
+    <t>Persistiu os dados enviados pela aplicação cliente conforme situação problema</t>
+  </si>
+  <si>
+    <t>Validou todos os campos com menor tamanho do que o permitido pela aplicação</t>
+  </si>
+  <si>
+    <t>Validou todos os campos requeridos enviados pela aplicação cliente</t>
+  </si>
+  <si>
+    <t>Validou a data de nascimento do paciente para que não seja maior do que a data atual</t>
+  </si>
+  <si>
+    <t>7. Transferir arquivos entre cliente e servidor por meio da aplicação web</t>
+  </si>
+  <si>
+    <t>Recebeu da aplicação cliente um arquivo do tipo imagem e salvou o caminho no banco de dados</t>
+  </si>
+  <si>
+    <t>Restringiu a aplicação para que salve apenas arquivos com o tipo de png, jpg</t>
+  </si>
+  <si>
+    <t>11. Publicar a aplicação web</t>
+  </si>
+  <si>
+    <t>Disponibilizou em ambiente online, a aplicação back-end funcional</t>
+  </si>
+  <si>
+    <t>Utilizou corretamente os arquivos de configuração em aplicação para ambientes de produção e desenvolvimento</t>
   </si>
 </sst>
 </file>
@@ -699,7 +797,7 @@
   <dimension ref="A1:Z46"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AC8" sqref="AC8"/>
+      <selection activeCell="Y2" sqref="Y2:Z4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3292,7 +3390,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A46"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5730,4 +5830,1992 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AA33"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Z28" sqref="Z28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="87.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="3.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="3.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="27" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" ht="59.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="U1" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="4"/>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="4"/>
+      <c r="Z3" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA3" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="4">
+        <v>10</v>
+      </c>
+      <c r="C4" s="9">
+        <v>10</v>
+      </c>
+      <c r="D4" s="4">
+        <v>10</v>
+      </c>
+      <c r="E4" s="9">
+        <v>10</v>
+      </c>
+      <c r="F4" s="4">
+        <v>10</v>
+      </c>
+      <c r="G4" s="9">
+        <v>10</v>
+      </c>
+      <c r="H4" s="4">
+        <v>10</v>
+      </c>
+      <c r="I4" s="9">
+        <v>10</v>
+      </c>
+      <c r="J4" s="4">
+        <v>10</v>
+      </c>
+      <c r="K4" s="9">
+        <v>10</v>
+      </c>
+      <c r="L4" s="4">
+        <v>10</v>
+      </c>
+      <c r="M4" s="9">
+        <v>10</v>
+      </c>
+      <c r="N4" s="4">
+        <v>10</v>
+      </c>
+      <c r="O4" s="9">
+        <v>10</v>
+      </c>
+      <c r="P4" s="4">
+        <v>10</v>
+      </c>
+      <c r="Q4" s="9">
+        <v>10</v>
+      </c>
+      <c r="R4" s="4">
+        <v>10</v>
+      </c>
+      <c r="S4" s="9">
+        <v>10</v>
+      </c>
+      <c r="T4" s="4">
+        <v>10</v>
+      </c>
+      <c r="U4" s="9">
+        <v>10</v>
+      </c>
+      <c r="V4" s="4">
+        <v>10</v>
+      </c>
+      <c r="Z4" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="4"/>
+      <c r="Z5" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA5" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" s="4">
+        <v>10</v>
+      </c>
+      <c r="C6" s="9">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4">
+        <v>10</v>
+      </c>
+      <c r="E6" s="9">
+        <v>10</v>
+      </c>
+      <c r="F6" s="4">
+        <v>10</v>
+      </c>
+      <c r="G6" s="9">
+        <v>10</v>
+      </c>
+      <c r="H6" s="4">
+        <v>10</v>
+      </c>
+      <c r="I6" s="9">
+        <v>10</v>
+      </c>
+      <c r="J6" s="4">
+        <v>10</v>
+      </c>
+      <c r="K6" s="9">
+        <v>10</v>
+      </c>
+      <c r="L6" s="4">
+        <v>10</v>
+      </c>
+      <c r="M6" s="9">
+        <v>10</v>
+      </c>
+      <c r="N6" s="4">
+        <v>10</v>
+      </c>
+      <c r="O6" s="9">
+        <v>10</v>
+      </c>
+      <c r="P6" s="4">
+        <v>10</v>
+      </c>
+      <c r="Q6" s="9">
+        <v>10</v>
+      </c>
+      <c r="R6" s="4">
+        <v>10</v>
+      </c>
+      <c r="S6" s="9">
+        <v>10</v>
+      </c>
+      <c r="T6" s="4">
+        <v>10</v>
+      </c>
+      <c r="U6" s="9">
+        <v>10</v>
+      </c>
+      <c r="V6" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="4"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="4"/>
+    </row>
+    <row r="9" spans="1:27" ht="24" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="4"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="4"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="4"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="4"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="9"/>
+      <c r="V13" s="4"/>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="4"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="9"/>
+      <c r="V15" s="4"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="9"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="9"/>
+      <c r="V16" s="4"/>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="9"/>
+      <c r="V17" s="4"/>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="9"/>
+      <c r="V18" s="4"/>
+    </row>
+    <row r="19" spans="1:22" ht="24" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="9"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="9"/>
+      <c r="V19" s="4"/>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="9"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="9"/>
+      <c r="V20" s="4"/>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="9"/>
+      <c r="T21" s="4"/>
+      <c r="U21" s="9"/>
+      <c r="V21" s="4"/>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="9"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="9"/>
+      <c r="V22" s="4"/>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="9"/>
+      <c r="T23" s="4"/>
+      <c r="U23" s="9"/>
+      <c r="V23" s="4"/>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B24" s="4">
+        <v>10</v>
+      </c>
+      <c r="C24" s="9">
+        <v>10</v>
+      </c>
+      <c r="D24" s="4">
+        <v>10</v>
+      </c>
+      <c r="E24" s="9">
+        <v>10</v>
+      </c>
+      <c r="F24" s="4">
+        <v>10</v>
+      </c>
+      <c r="G24" s="9">
+        <v>10</v>
+      </c>
+      <c r="H24" s="4">
+        <v>10</v>
+      </c>
+      <c r="I24" s="9">
+        <v>10</v>
+      </c>
+      <c r="J24" s="4">
+        <v>10</v>
+      </c>
+      <c r="K24" s="9">
+        <v>10</v>
+      </c>
+      <c r="L24" s="4">
+        <v>10</v>
+      </c>
+      <c r="M24" s="9">
+        <v>10</v>
+      </c>
+      <c r="N24" s="4">
+        <v>10</v>
+      </c>
+      <c r="O24" s="9">
+        <v>10</v>
+      </c>
+      <c r="P24" s="4">
+        <v>10</v>
+      </c>
+      <c r="Q24" s="9">
+        <v>10</v>
+      </c>
+      <c r="R24" s="4">
+        <v>10</v>
+      </c>
+      <c r="S24" s="9">
+        <v>10</v>
+      </c>
+      <c r="T24" s="4">
+        <v>10</v>
+      </c>
+      <c r="U24" s="9">
+        <v>10</v>
+      </c>
+      <c r="V24" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B25" s="4"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="4"/>
+      <c r="S25" s="9"/>
+      <c r="T25" s="4"/>
+      <c r="U25" s="9"/>
+      <c r="V25" s="4"/>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B26" s="4"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="4"/>
+      <c r="S26" s="9"/>
+      <c r="T26" s="4"/>
+      <c r="U26" s="9"/>
+      <c r="V26" s="4"/>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B27" s="4"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="9"/>
+      <c r="R27" s="4"/>
+      <c r="S27" s="9"/>
+      <c r="T27" s="4"/>
+      <c r="U27" s="9"/>
+      <c r="V27" s="4"/>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="9"/>
+      <c r="R28" s="4"/>
+      <c r="S28" s="9"/>
+      <c r="T28" s="4"/>
+      <c r="U28" s="9"/>
+      <c r="V28" s="4"/>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B29" s="4"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="9"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="9"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="9"/>
+      <c r="T29" s="4"/>
+      <c r="U29" s="9"/>
+      <c r="V29" s="4"/>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B30" s="4"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="9"/>
+      <c r="R30" s="4"/>
+      <c r="S30" s="9"/>
+      <c r="T30" s="4"/>
+      <c r="U30" s="9"/>
+      <c r="V30" s="4"/>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B31" s="4"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="9"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="9"/>
+      <c r="R31" s="4"/>
+      <c r="S31" s="9"/>
+      <c r="T31" s="4"/>
+      <c r="U31" s="9"/>
+      <c r="V31" s="4"/>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B32" s="4"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="9"/>
+      <c r="R32" s="4"/>
+      <c r="S32" s="9"/>
+      <c r="T32" s="4"/>
+      <c r="U32" s="9"/>
+      <c r="V32" s="4"/>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B33" s="4"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="9"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="9"/>
+      <c r="R33" s="4"/>
+      <c r="S33" s="9"/>
+      <c r="T33" s="4"/>
+      <c r="U33" s="9"/>
+      <c r="V33" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U33"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="79.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="78.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="3.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="3.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="21.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="U1" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="9"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="9"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="9"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="9"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="9"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="9"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="9"/>
+    </row>
+    <row r="9" spans="1:21" ht="24" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="9"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="9"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="9"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="9"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="9"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="9"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="9"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="9"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="9"/>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="9"/>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="9"/>
+    </row>
+    <row r="19" spans="1:21" ht="24" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="9"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="9"/>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="9"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="9"/>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="9"/>
+      <c r="T21" s="4"/>
+      <c r="U21" s="9"/>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="9"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="9"/>
+    </row>
+    <row r="23" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="9"/>
+      <c r="T23" s="4"/>
+      <c r="U23" s="9"/>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="4"/>
+      <c r="S24" s="9"/>
+      <c r="T24" s="4"/>
+      <c r="U24" s="9"/>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B25" s="4"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="4"/>
+      <c r="S25" s="9"/>
+      <c r="T25" s="4"/>
+      <c r="U25" s="9"/>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B26" s="4"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="4"/>
+      <c r="S26" s="9"/>
+      <c r="T26" s="4"/>
+      <c r="U26" s="9"/>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B27" s="4"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="9"/>
+      <c r="R27" s="4"/>
+      <c r="S27" s="9"/>
+      <c r="T27" s="4"/>
+      <c r="U27" s="9"/>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="9"/>
+      <c r="R28" s="4"/>
+      <c r="S28" s="9"/>
+      <c r="T28" s="4"/>
+      <c r="U28" s="9"/>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B29" s="4"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="9"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="9"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="9"/>
+      <c r="T29" s="4"/>
+      <c r="U29" s="9"/>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B30" s="4"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="9"/>
+      <c r="R30" s="4"/>
+      <c r="S30" s="9"/>
+      <c r="T30" s="4"/>
+      <c r="U30" s="9"/>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B31" s="4"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="9"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="9"/>
+      <c r="R31" s="4"/>
+      <c r="S31" s="9"/>
+      <c r="T31" s="4"/>
+      <c r="U31" s="9"/>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B32" s="4"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="9"/>
+      <c r="R32" s="4"/>
+      <c r="S32" s="9"/>
+      <c r="T32" s="4"/>
+      <c r="U32" s="9"/>
+    </row>
+    <row r="33" spans="1:21" ht="24" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B33" s="4"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="9"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="9"/>
+      <c r="R33" s="4"/>
+      <c r="S33" s="9"/>
+      <c r="T33" s="4"/>
+      <c r="U33" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/planejamento/sprint-1-criterios.xlsx
+++ b/planejamento/sprint-1-criterios.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="bd-1-m" sheetId="1" r:id="rId1"/>
@@ -800,35 +800,35 @@
       <selection activeCell="Y2" sqref="Y2:Z4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="81.42578125" customWidth="1"/>
-    <col min="2" max="2" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="3.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="3.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="3.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="3.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="3.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="81.44140625" customWidth="1"/>
+    <col min="2" max="2" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="3.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="3.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="30.5546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="3.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="1" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" s="1" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>45</v>
       </c>
@@ -896,7 +896,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -928,7 +928,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -1002,7 +1002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -1076,7 +1076,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
@@ -1102,7 +1102,7 @@
       <c r="U5" s="9"/>
       <c r="V5" s="4"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -1128,7 +1128,7 @@
       <c r="U6" s="9"/>
       <c r="V6" s="4"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -1196,7 +1196,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
@@ -1264,7 +1264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -1290,7 +1290,7 @@
       <c r="U9" s="9"/>
       <c r="V9" s="4"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
@@ -1358,7 +1358,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>9</v>
       </c>
@@ -1426,7 +1426,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
@@ -1494,7 +1494,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>11</v>
       </c>
@@ -1520,7 +1520,7 @@
       <c r="U13" s="9"/>
       <c r="V13" s="4"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
@@ -1546,7 +1546,7 @@
       <c r="U14" s="9"/>
       <c r="V14" s="4"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>13</v>
       </c>
@@ -1614,7 +1614,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>14</v>
       </c>
@@ -1682,7 +1682,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>15</v>
       </c>
@@ -1750,7 +1750,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
@@ -1776,7 +1776,7 @@
       <c r="U18" s="9"/>
       <c r="V18" s="4"/>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>17</v>
       </c>
@@ -1844,7 +1844,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>18</v>
       </c>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>19</v>
       </c>
@@ -1938,7 +1938,7 @@
       <c r="U21" s="9"/>
       <c r="V21" s="4"/>
     </row>
-    <row r="22" spans="1:22" ht="36" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" ht="36" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>20</v>
       </c>
@@ -2006,7 +2006,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>21</v>
       </c>
@@ -2074,7 +2074,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
@@ -2100,7 +2100,7 @@
       <c r="U24" s="9"/>
       <c r="V24" s="4"/>
     </row>
-    <row r="25" spans="1:22" ht="24" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" ht="24" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>23</v>
       </c>
@@ -2168,7 +2168,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>24</v>
       </c>
@@ -2236,7 +2236,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>25</v>
       </c>
@@ -2262,7 +2262,7 @@
       <c r="U27" s="9"/>
       <c r="V27" s="4"/>
     </row>
-    <row r="28" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>26</v>
       </c>
@@ -2330,7 +2330,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>27</v>
       </c>
@@ -2398,7 +2398,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>28</v>
       </c>
@@ -2466,7 +2466,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>29</v>
       </c>
@@ -2492,7 +2492,7 @@
       <c r="U31" s="9"/>
       <c r="V31" s="4"/>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>30</v>
       </c>
@@ -2560,7 +2560,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
         <v>31</v>
       </c>
@@ -2628,7 +2628,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>32</v>
       </c>
@@ -2654,7 +2654,7 @@
       <c r="U34" s="9"/>
       <c r="V34" s="4"/>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>33</v>
       </c>
@@ -2722,7 +2722,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>34</v>
       </c>
@@ -2790,7 +2790,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>35</v>
       </c>
@@ -2858,7 +2858,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>36</v>
       </c>
@@ -2926,7 +2926,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>37</v>
       </c>
@@ -2952,7 +2952,7 @@
       <c r="U39" s="9"/>
       <c r="V39" s="4"/>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>38</v>
       </c>
@@ -3020,7 +3020,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>39</v>
       </c>
@@ -3088,7 +3088,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
         <v>40</v>
       </c>
@@ -3156,7 +3156,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>41</v>
       </c>
@@ -3182,7 +3182,7 @@
       <c r="U43" s="9"/>
       <c r="V43" s="4"/>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
         <v>42</v>
       </c>
@@ -3248,7 +3248,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
         <v>43</v>
       </c>
@@ -3314,7 +3314,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
         <v>44</v>
       </c>
@@ -3394,34 +3394,34 @@
       <selection activeCell="A2" sqref="A2:A46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="90.42578125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="3.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="3.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="3.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="3.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="3.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="90.44140625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="3.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="3.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="30.5546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="3.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>45</v>
       </c>
@@ -3486,7 +3486,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
@@ -3517,7 +3517,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -3588,7 +3588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -3659,7 +3659,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
@@ -3684,7 +3684,7 @@
       <c r="T5" s="4"/>
       <c r="U5" s="9"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -3709,7 +3709,7 @@
       <c r="T6" s="4"/>
       <c r="U6" s="9"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -3774,7 +3774,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
@@ -3799,7 +3799,7 @@
       <c r="T8" s="4"/>
       <c r="U8" s="9"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -3824,7 +3824,7 @@
       <c r="T9" s="4"/>
       <c r="U9" s="9"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
@@ -3889,7 +3889,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>9</v>
       </c>
@@ -3954,7 +3954,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
@@ -4019,7 +4019,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>11</v>
       </c>
@@ -4044,7 +4044,7 @@
       <c r="T13" s="4"/>
       <c r="U13" s="9"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
@@ -4069,7 +4069,7 @@
       <c r="T14" s="4"/>
       <c r="U14" s="9"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>13</v>
       </c>
@@ -4134,7 +4134,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>14</v>
       </c>
@@ -4199,7 +4199,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>15</v>
       </c>
@@ -4264,7 +4264,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
@@ -4289,7 +4289,7 @@
       <c r="T18" s="4"/>
       <c r="U18" s="9"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>17</v>
       </c>
@@ -4354,7 +4354,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>18</v>
       </c>
@@ -4419,7 +4419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>19</v>
       </c>
@@ -4444,7 +4444,7 @@
       <c r="T21" s="4"/>
       <c r="U21" s="9"/>
     </row>
-    <row r="22" spans="1:21" ht="36" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" ht="36" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>20</v>
       </c>
@@ -4507,7 +4507,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>21</v>
       </c>
@@ -4572,7 +4572,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
@@ -4597,7 +4597,7 @@
       <c r="T24" s="4"/>
       <c r="U24" s="9"/>
     </row>
-    <row r="25" spans="1:21" ht="24" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" ht="24" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>23</v>
       </c>
@@ -4662,7 +4662,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>24</v>
       </c>
@@ -4727,7 +4727,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>25</v>
       </c>
@@ -4752,7 +4752,7 @@
       <c r="T27" s="4"/>
       <c r="U27" s="9"/>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>26</v>
       </c>
@@ -4817,7 +4817,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>27</v>
       </c>
@@ -4882,7 +4882,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>28</v>
       </c>
@@ -4947,7 +4947,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>29</v>
       </c>
@@ -4972,7 +4972,7 @@
       <c r="T31" s="4"/>
       <c r="U31" s="9"/>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>30</v>
       </c>
@@ -5037,7 +5037,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
         <v>31</v>
       </c>
@@ -5102,7 +5102,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>32</v>
       </c>
@@ -5127,7 +5127,7 @@
       <c r="T34" s="4"/>
       <c r="U34" s="9"/>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>33</v>
       </c>
@@ -5192,7 +5192,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>34</v>
       </c>
@@ -5257,7 +5257,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>35</v>
       </c>
@@ -5322,7 +5322,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>36</v>
       </c>
@@ -5387,7 +5387,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>37</v>
       </c>
@@ -5412,7 +5412,7 @@
       <c r="T39" s="4"/>
       <c r="U39" s="9"/>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>38</v>
       </c>
@@ -5477,7 +5477,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>39</v>
       </c>
@@ -5542,7 +5542,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
         <v>40</v>
       </c>
@@ -5607,7 +5607,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>41</v>
       </c>
@@ -5632,7 +5632,7 @@
       <c r="T43" s="4"/>
       <c r="U43" s="9"/>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
         <v>42</v>
       </c>
@@ -5697,7 +5697,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
         <v>43</v>
       </c>
@@ -5762,7 +5762,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
         <v>44</v>
       </c>
@@ -5836,39 +5836,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA33"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Z28" sqref="Z28"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W15" sqref="W15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="87.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="3.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="3.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="3.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="3.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="3.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="87.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="3.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="3.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="3.6640625" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="27" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="59.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" ht="57" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>45</v>
       </c>
@@ -5936,7 +5936,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>88</v>
       </c>
@@ -5962,7 +5962,7 @@
       <c r="U2" s="9"/>
       <c r="V2" s="4"/>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>89</v>
       </c>
@@ -5994,7 +5994,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>90</v>
       </c>
@@ -6068,7 +6068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>91</v>
       </c>
@@ -6100,7 +6100,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>92</v>
       </c>
@@ -6168,33 +6168,75 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="9"/>
-      <c r="V7" s="4"/>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B7" s="4">
+        <v>10</v>
+      </c>
+      <c r="C7" s="9">
+        <v>10</v>
+      </c>
+      <c r="D7" s="4">
+        <v>10</v>
+      </c>
+      <c r="E7" s="9">
+        <v>10</v>
+      </c>
+      <c r="F7" s="4">
+        <v>10</v>
+      </c>
+      <c r="G7" s="9">
+        <v>10</v>
+      </c>
+      <c r="H7" s="4">
+        <v>10</v>
+      </c>
+      <c r="I7" s="9">
+        <v>10</v>
+      </c>
+      <c r="J7" s="4">
+        <v>10</v>
+      </c>
+      <c r="K7" s="9">
+        <v>10</v>
+      </c>
+      <c r="L7" s="4">
+        <v>10</v>
+      </c>
+      <c r="M7" s="9">
+        <v>10</v>
+      </c>
+      <c r="N7" s="4">
+        <v>10</v>
+      </c>
+      <c r="O7" s="9">
+        <v>10</v>
+      </c>
+      <c r="P7" s="4">
+        <v>10</v>
+      </c>
+      <c r="Q7" s="9">
+        <v>10</v>
+      </c>
+      <c r="R7" s="4">
+        <v>10</v>
+      </c>
+      <c r="S7" s="9">
+        <v>10</v>
+      </c>
+      <c r="T7" s="4">
+        <v>10</v>
+      </c>
+      <c r="U7" s="9">
+        <v>10</v>
+      </c>
+      <c r="V7" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>94</v>
       </c>
@@ -6220,33 +6262,75 @@
       <c r="U8" s="9"/>
       <c r="V8" s="4"/>
     </row>
-    <row r="9" spans="1:27" ht="24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" ht="24" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="9"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="9"/>
-      <c r="V9" s="4"/>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B9" s="4">
+        <v>10</v>
+      </c>
+      <c r="C9" s="9">
+        <v>10</v>
+      </c>
+      <c r="D9" s="4">
+        <v>10</v>
+      </c>
+      <c r="E9" s="9">
+        <v>10</v>
+      </c>
+      <c r="F9" s="4">
+        <v>10</v>
+      </c>
+      <c r="G9" s="9">
+        <v>10</v>
+      </c>
+      <c r="H9" s="4">
+        <v>10</v>
+      </c>
+      <c r="I9" s="9">
+        <v>10</v>
+      </c>
+      <c r="J9" s="4">
+        <v>10</v>
+      </c>
+      <c r="K9" s="9">
+        <v>10</v>
+      </c>
+      <c r="L9" s="4">
+        <v>10</v>
+      </c>
+      <c r="M9" s="9">
+        <v>10</v>
+      </c>
+      <c r="N9" s="4">
+        <v>10</v>
+      </c>
+      <c r="O9" s="9">
+        <v>10</v>
+      </c>
+      <c r="P9" s="4">
+        <v>10</v>
+      </c>
+      <c r="Q9" s="9">
+        <v>10</v>
+      </c>
+      <c r="R9" s="4">
+        <v>10</v>
+      </c>
+      <c r="S9" s="9">
+        <v>10</v>
+      </c>
+      <c r="T9" s="4">
+        <v>10</v>
+      </c>
+      <c r="U9" s="9">
+        <v>10</v>
+      </c>
+      <c r="V9" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>96</v>
       </c>
@@ -6272,7 +6356,7 @@
       <c r="U10" s="9"/>
       <c r="V10" s="4"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>97</v>
       </c>
@@ -6298,7 +6382,7 @@
       <c r="U11" s="9"/>
       <c r="V11" s="4"/>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>98</v>
       </c>
@@ -6324,7 +6408,7 @@
       <c r="U12" s="9"/>
       <c r="V12" s="4"/>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>99</v>
       </c>
@@ -6350,7 +6434,7 @@
       <c r="U13" s="9"/>
       <c r="V13" s="4"/>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>100</v>
       </c>
@@ -6376,7 +6460,7 @@
       <c r="U14" s="9"/>
       <c r="V14" s="4"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>101</v>
       </c>
@@ -6402,7 +6486,7 @@
       <c r="U15" s="9"/>
       <c r="V15" s="4"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>102</v>
       </c>
@@ -6428,7 +6512,7 @@
       <c r="U16" s="9"/>
       <c r="V16" s="4"/>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>103</v>
       </c>
@@ -6454,33 +6538,75 @@
       <c r="U17" s="9"/>
       <c r="V17" s="4"/>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="9"/>
-      <c r="T18" s="4"/>
-      <c r="U18" s="9"/>
-      <c r="V18" s="4"/>
-    </row>
-    <row r="19" spans="1:22" ht="24" x14ac:dyDescent="0.25">
+      <c r="B18" s="4">
+        <v>10</v>
+      </c>
+      <c r="C18" s="9">
+        <v>10</v>
+      </c>
+      <c r="D18" s="4">
+        <v>10</v>
+      </c>
+      <c r="E18" s="9">
+        <v>10</v>
+      </c>
+      <c r="F18" s="4">
+        <v>10</v>
+      </c>
+      <c r="G18" s="9">
+        <v>10</v>
+      </c>
+      <c r="H18" s="4">
+        <v>10</v>
+      </c>
+      <c r="I18" s="9">
+        <v>10</v>
+      </c>
+      <c r="J18" s="4">
+        <v>10</v>
+      </c>
+      <c r="K18" s="9">
+        <v>10</v>
+      </c>
+      <c r="L18" s="4">
+        <v>10</v>
+      </c>
+      <c r="M18" s="9">
+        <v>10</v>
+      </c>
+      <c r="N18" s="4">
+        <v>10</v>
+      </c>
+      <c r="O18" s="9">
+        <v>10</v>
+      </c>
+      <c r="P18" s="4">
+        <v>10</v>
+      </c>
+      <c r="Q18" s="9">
+        <v>10</v>
+      </c>
+      <c r="R18" s="4">
+        <v>10</v>
+      </c>
+      <c r="S18" s="9">
+        <v>10</v>
+      </c>
+      <c r="T18" s="4">
+        <v>10</v>
+      </c>
+      <c r="U18" s="9">
+        <v>10</v>
+      </c>
+      <c r="V18" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>105</v>
       </c>
@@ -6506,7 +6632,7 @@
       <c r="U19" s="9"/>
       <c r="V19" s="4"/>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>106</v>
       </c>
@@ -6532,7 +6658,7 @@
       <c r="U20" s="9"/>
       <c r="V20" s="4"/>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>107</v>
       </c>
@@ -6558,7 +6684,7 @@
       <c r="U21" s="9"/>
       <c r="V21" s="4"/>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>108</v>
       </c>
@@ -6584,7 +6710,7 @@
       <c r="U22" s="9"/>
       <c r="V22" s="4"/>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>109</v>
       </c>
@@ -6610,75 +6736,33 @@
       <c r="U23" s="9"/>
       <c r="V23" s="4"/>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B24" s="4">
-        <v>10</v>
-      </c>
-      <c r="C24" s="9">
-        <v>10</v>
-      </c>
-      <c r="D24" s="4">
-        <v>10</v>
-      </c>
-      <c r="E24" s="9">
-        <v>10</v>
-      </c>
-      <c r="F24" s="4">
-        <v>10</v>
-      </c>
-      <c r="G24" s="9">
-        <v>10</v>
-      </c>
-      <c r="H24" s="4">
-        <v>10</v>
-      </c>
-      <c r="I24" s="9">
-        <v>10</v>
-      </c>
-      <c r="J24" s="4">
-        <v>10</v>
-      </c>
-      <c r="K24" s="9">
-        <v>10</v>
-      </c>
-      <c r="L24" s="4">
-        <v>10</v>
-      </c>
-      <c r="M24" s="9">
-        <v>10</v>
-      </c>
-      <c r="N24" s="4">
-        <v>10</v>
-      </c>
-      <c r="O24" s="9">
-        <v>10</v>
-      </c>
-      <c r="P24" s="4">
-        <v>10</v>
-      </c>
-      <c r="Q24" s="9">
-        <v>10</v>
-      </c>
-      <c r="R24" s="4">
-        <v>10</v>
-      </c>
-      <c r="S24" s="9">
-        <v>10</v>
-      </c>
-      <c r="T24" s="4">
-        <v>10</v>
-      </c>
-      <c r="U24" s="9">
-        <v>10</v>
-      </c>
-      <c r="V24" s="4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B24" s="4"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="4"/>
+      <c r="S24" s="9"/>
+      <c r="T24" s="4"/>
+      <c r="U24" s="9"/>
+      <c r="V24" s="4"/>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>111</v>
       </c>
@@ -6704,7 +6788,7 @@
       <c r="U25" s="9"/>
       <c r="V25" s="4"/>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>112</v>
       </c>
@@ -6730,7 +6814,7 @@
       <c r="U26" s="9"/>
       <c r="V26" s="4"/>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>113</v>
       </c>
@@ -6756,7 +6840,7 @@
       <c r="U27" s="9"/>
       <c r="V27" s="4"/>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>114</v>
       </c>
@@ -6782,7 +6866,7 @@
       <c r="U28" s="9"/>
       <c r="V28" s="4"/>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>115</v>
       </c>
@@ -6808,7 +6892,7 @@
       <c r="U29" s="9"/>
       <c r="V29" s="4"/>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>116</v>
       </c>
@@ -6834,7 +6918,7 @@
       <c r="U30" s="9"/>
       <c r="V30" s="4"/>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>117</v>
       </c>
@@ -6860,7 +6944,7 @@
       <c r="U31" s="9"/>
       <c r="V31" s="4"/>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>118</v>
       </c>
@@ -6886,7 +6970,7 @@
       <c r="U32" s="9"/>
       <c r="V32" s="4"/>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
         <v>119</v>
       </c>
@@ -6922,35 +7006,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="79.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="79.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="78.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="3.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="3.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="3.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="3.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="3.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="21.140625" customWidth="1"/>
+    <col min="1" max="1" width="78.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="3.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="3.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="21.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="66" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>45</v>
       </c>
@@ -7015,7 +7099,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>88</v>
       </c>
@@ -7040,7 +7124,7 @@
       <c r="T2" s="4"/>
       <c r="U2" s="9"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>89</v>
       </c>
@@ -7065,7 +7149,7 @@
       <c r="T3" s="4"/>
       <c r="U3" s="9"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>90</v>
       </c>
@@ -7090,7 +7174,7 @@
       <c r="T4" s="4"/>
       <c r="U4" s="9"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>91</v>
       </c>
@@ -7115,7 +7199,7 @@
       <c r="T5" s="4"/>
       <c r="U5" s="9"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>92</v>
       </c>
@@ -7140,7 +7224,7 @@
       <c r="T6" s="4"/>
       <c r="U6" s="9"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>93</v>
       </c>
@@ -7165,7 +7249,7 @@
       <c r="T7" s="4"/>
       <c r="U7" s="9"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>94</v>
       </c>
@@ -7190,7 +7274,7 @@
       <c r="T8" s="4"/>
       <c r="U8" s="9"/>
     </row>
-    <row r="9" spans="1:21" ht="24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" ht="24" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>95</v>
       </c>
@@ -7215,7 +7299,7 @@
       <c r="T9" s="4"/>
       <c r="U9" s="9"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>96</v>
       </c>
@@ -7240,7 +7324,7 @@
       <c r="T10" s="4"/>
       <c r="U10" s="9"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>97</v>
       </c>
@@ -7265,7 +7349,7 @@
       <c r="T11" s="4"/>
       <c r="U11" s="9"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>98</v>
       </c>
@@ -7290,7 +7374,7 @@
       <c r="T12" s="4"/>
       <c r="U12" s="9"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>99</v>
       </c>
@@ -7315,7 +7399,7 @@
       <c r="T13" s="4"/>
       <c r="U13" s="9"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>100</v>
       </c>
@@ -7340,7 +7424,7 @@
       <c r="T14" s="4"/>
       <c r="U14" s="9"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>101</v>
       </c>
@@ -7365,7 +7449,7 @@
       <c r="T15" s="4"/>
       <c r="U15" s="9"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>102</v>
       </c>
@@ -7390,7 +7474,7 @@
       <c r="T16" s="4"/>
       <c r="U16" s="9"/>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>103</v>
       </c>
@@ -7415,7 +7499,7 @@
       <c r="T17" s="4"/>
       <c r="U17" s="9"/>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>104</v>
       </c>
@@ -7440,7 +7524,7 @@
       <c r="T18" s="4"/>
       <c r="U18" s="9"/>
     </row>
-    <row r="19" spans="1:21" ht="24" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" ht="24" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>105</v>
       </c>
@@ -7465,7 +7549,7 @@
       <c r="T19" s="4"/>
       <c r="U19" s="9"/>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>106</v>
       </c>
@@ -7490,7 +7574,7 @@
       <c r="T20" s="4"/>
       <c r="U20" s="9"/>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>107</v>
       </c>
@@ -7515,7 +7599,7 @@
       <c r="T21" s="4"/>
       <c r="U21" s="9"/>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>108</v>
       </c>
@@ -7540,7 +7624,7 @@
       <c r="T22" s="4"/>
       <c r="U22" s="9"/>
     </row>
-    <row r="23" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>109</v>
       </c>
@@ -7565,7 +7649,7 @@
       <c r="T23" s="4"/>
       <c r="U23" s="9"/>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>110</v>
       </c>
@@ -7590,7 +7674,7 @@
       <c r="T24" s="4"/>
       <c r="U24" s="9"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>111</v>
       </c>
@@ -7615,7 +7699,7 @@
       <c r="T25" s="4"/>
       <c r="U25" s="9"/>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>112</v>
       </c>
@@ -7640,7 +7724,7 @@
       <c r="T26" s="4"/>
       <c r="U26" s="9"/>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>113</v>
       </c>
@@ -7665,7 +7749,7 @@
       <c r="T27" s="4"/>
       <c r="U27" s="9"/>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>114</v>
       </c>
@@ -7690,7 +7774,7 @@
       <c r="T28" s="4"/>
       <c r="U28" s="9"/>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>115</v>
       </c>
@@ -7715,7 +7799,7 @@
       <c r="T29" s="4"/>
       <c r="U29" s="9"/>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>116</v>
       </c>
@@ -7740,7 +7824,7 @@
       <c r="T30" s="4"/>
       <c r="U30" s="9"/>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>117</v>
       </c>
@@ -7765,7 +7849,7 @@
       <c r="T31" s="4"/>
       <c r="U31" s="9"/>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>118</v>
       </c>
@@ -7790,7 +7874,7 @@
       <c r="T32" s="4"/>
       <c r="U32" s="9"/>
     </row>
-    <row r="33" spans="1:21" ht="24" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
         <v>119</v>
       </c>

--- a/planejamento/sprint-1-criterios.xlsx
+++ b/planejamento/sprint-1-criterios.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="bd-1-m" sheetId="1" r:id="rId1"/>
@@ -388,7 +388,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -416,6 +416,28 @@
     </font>
     <font>
       <sz val="7"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri Light"/>
       <family val="2"/>
@@ -472,10 +494,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -514,8 +537,21 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -796,8 +832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z46"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Y2" sqref="Y2:Z4"/>
+    <sheetView showGridLines="0" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5836,8 +5872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W15" sqref="W15"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5868,29 +5904,29 @@
     <col min="27" max="27" width="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="57" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="16" t="s">
         <v>48</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="16" t="s">
         <v>50</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="16" t="s">
         <v>52</v>
       </c>
       <c r="I1" s="8" t="s">
@@ -5899,22 +5935,22 @@
       <c r="J1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="O1" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="16" t="s">
         <v>60</v>
       </c>
       <c r="Q1" s="8" t="s">
@@ -5926,13 +5962,13 @@
       <c r="S1" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="16" t="s">
         <v>64</v>
       </c>
       <c r="U1" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="V1" s="16" t="s">
         <v>66</v>
       </c>
     </row>
@@ -6997,8 +7033,21 @@
       <c r="V33" s="4"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H1" r:id="rId1"/>
+    <hyperlink ref="P1" r:id="rId2"/>
+    <hyperlink ref="V1" r:id="rId3"/>
+    <hyperlink ref="M1" r:id="rId4"/>
+    <hyperlink ref="C1" r:id="rId5"/>
+    <hyperlink ref="N1" r:id="rId6"/>
+    <hyperlink ref="D1" r:id="rId7"/>
+    <hyperlink ref="T1" r:id="rId8"/>
+    <hyperlink ref="O1" r:id="rId9"/>
+    <hyperlink ref="L1" r:id="rId10"/>
+    <hyperlink ref="F1" r:id="rId11"/>
+  </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
 </worksheet>
 </file>
 
@@ -7006,7 +7055,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U33"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T1" sqref="T1:T1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="79.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -7068,7 +7119,7 @@
       <c r="K1" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="16" t="s">
         <v>54</v>
       </c>
       <c r="M1" s="8" t="s">
@@ -7128,7 +7179,9 @@
       <c r="A3" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="4"/>
+      <c r="B3" s="4">
+        <v>10</v>
+      </c>
       <c r="C3" s="9"/>
       <c r="D3" s="4"/>
       <c r="E3" s="9"/>
@@ -7153,26 +7206,66 @@
       <c r="A4" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="9"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="9"/>
+      <c r="B4" s="4">
+        <v>10</v>
+      </c>
+      <c r="C4" s="9">
+        <v>10</v>
+      </c>
+      <c r="D4" s="4">
+        <v>10</v>
+      </c>
+      <c r="E4" s="9">
+        <v>10</v>
+      </c>
+      <c r="F4" s="4">
+        <v>10</v>
+      </c>
+      <c r="G4" s="9">
+        <v>10</v>
+      </c>
+      <c r="H4" s="4">
+        <v>10</v>
+      </c>
+      <c r="I4" s="9">
+        <v>10</v>
+      </c>
+      <c r="J4" s="4">
+        <v>10</v>
+      </c>
+      <c r="K4" s="9">
+        <v>10</v>
+      </c>
+      <c r="L4" s="4">
+        <v>10</v>
+      </c>
+      <c r="M4" s="9">
+        <v>10</v>
+      </c>
+      <c r="N4" s="4">
+        <v>10</v>
+      </c>
+      <c r="O4" s="9">
+        <v>10</v>
+      </c>
+      <c r="P4" s="4">
+        <v>10</v>
+      </c>
+      <c r="Q4" s="9">
+        <v>10</v>
+      </c>
+      <c r="R4" s="4">
+        <v>10</v>
+      </c>
+      <c r="S4" s="9">
+        <v>10</v>
+      </c>
+      <c r="T4" s="4">
+        <v>10</v>
+      </c>
+      <c r="U4" s="9">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
@@ -7203,51 +7296,131 @@
       <c r="A6" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="9"/>
+      <c r="B6" s="4">
+        <v>10</v>
+      </c>
+      <c r="C6" s="9">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4">
+        <v>10</v>
+      </c>
+      <c r="E6" s="9">
+        <v>10</v>
+      </c>
+      <c r="F6" s="4">
+        <v>10</v>
+      </c>
+      <c r="G6" s="9">
+        <v>10</v>
+      </c>
+      <c r="H6" s="4">
+        <v>10</v>
+      </c>
+      <c r="I6" s="9">
+        <v>10</v>
+      </c>
+      <c r="J6" s="4">
+        <v>10</v>
+      </c>
+      <c r="K6" s="9">
+        <v>10</v>
+      </c>
+      <c r="L6" s="4">
+        <v>10</v>
+      </c>
+      <c r="M6" s="9">
+        <v>10</v>
+      </c>
+      <c r="N6" s="4">
+        <v>10</v>
+      </c>
+      <c r="O6" s="9">
+        <v>10</v>
+      </c>
+      <c r="P6" s="4">
+        <v>10</v>
+      </c>
+      <c r="Q6" s="9">
+        <v>10</v>
+      </c>
+      <c r="R6" s="4">
+        <v>10</v>
+      </c>
+      <c r="S6" s="9">
+        <v>10</v>
+      </c>
+      <c r="T6" s="4">
+        <v>10</v>
+      </c>
+      <c r="U6" s="9">
+        <v>10</v>
+      </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="9"/>
+      <c r="B7" s="4">
+        <v>0</v>
+      </c>
+      <c r="C7" s="9">
+        <v>10</v>
+      </c>
+      <c r="D7" s="4">
+        <v>10</v>
+      </c>
+      <c r="E7" s="9">
+        <v>10</v>
+      </c>
+      <c r="F7" s="4">
+        <v>10</v>
+      </c>
+      <c r="G7" s="9">
+        <v>10</v>
+      </c>
+      <c r="H7" s="4">
+        <v>10</v>
+      </c>
+      <c r="I7" s="9">
+        <v>10</v>
+      </c>
+      <c r="J7" s="4">
+        <v>10</v>
+      </c>
+      <c r="K7" s="9">
+        <v>10</v>
+      </c>
+      <c r="L7" s="4">
+        <v>10</v>
+      </c>
+      <c r="M7" s="9">
+        <v>10</v>
+      </c>
+      <c r="N7" s="4">
+        <v>10</v>
+      </c>
+      <c r="O7" s="9">
+        <v>10</v>
+      </c>
+      <c r="P7" s="4">
+        <v>10</v>
+      </c>
+      <c r="Q7" s="9">
+        <v>10</v>
+      </c>
+      <c r="R7" s="4">
+        <v>10</v>
+      </c>
+      <c r="S7" s="9">
+        <v>10</v>
+      </c>
+      <c r="T7" s="4">
+        <v>10</v>
+      </c>
+      <c r="U7" s="9">
+        <v>10</v>
+      </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
@@ -7278,32 +7451,74 @@
       <c r="A9" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="9"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="9"/>
+      <c r="B9" s="4">
+        <v>10</v>
+      </c>
+      <c r="C9" s="9">
+        <v>10</v>
+      </c>
+      <c r="D9" s="4">
+        <v>10</v>
+      </c>
+      <c r="E9" s="9">
+        <v>10</v>
+      </c>
+      <c r="F9" s="4">
+        <v>10</v>
+      </c>
+      <c r="G9" s="9">
+        <v>10</v>
+      </c>
+      <c r="H9" s="4">
+        <v>10</v>
+      </c>
+      <c r="I9" s="9">
+        <v>10</v>
+      </c>
+      <c r="J9" s="4">
+        <v>10</v>
+      </c>
+      <c r="K9" s="9">
+        <v>10</v>
+      </c>
+      <c r="L9" s="4">
+        <v>10</v>
+      </c>
+      <c r="M9" s="9">
+        <v>10</v>
+      </c>
+      <c r="N9" s="4">
+        <v>10</v>
+      </c>
+      <c r="O9" s="9">
+        <v>10</v>
+      </c>
+      <c r="P9" s="4">
+        <v>10</v>
+      </c>
+      <c r="Q9" s="9">
+        <v>10</v>
+      </c>
+      <c r="R9" s="4">
+        <v>10</v>
+      </c>
+      <c r="S9" s="9">
+        <v>10</v>
+      </c>
+      <c r="T9" s="4">
+        <v>10</v>
+      </c>
+      <c r="U9" s="9">
+        <v>10</v>
+      </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="B10" s="4"/>
+      <c r="B10" s="4">
+        <v>10</v>
+      </c>
       <c r="C10" s="9"/>
       <c r="D10" s="4"/>
       <c r="E10" s="9"/>
@@ -7328,7 +7543,9 @@
       <c r="A11" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="B11" s="4"/>
+      <c r="B11" s="4">
+        <v>0</v>
+      </c>
       <c r="C11" s="9"/>
       <c r="D11" s="4"/>
       <c r="E11" s="9"/>
@@ -7378,7 +7595,9 @@
       <c r="A13" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="B13" s="4"/>
+      <c r="B13" s="4">
+        <v>10</v>
+      </c>
       <c r="C13" s="9"/>
       <c r="D13" s="4"/>
       <c r="E13" s="9"/>
@@ -7403,7 +7622,9 @@
       <c r="A14" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B14" s="4"/>
+      <c r="B14" s="4">
+        <v>10</v>
+      </c>
       <c r="C14" s="9"/>
       <c r="D14" s="4"/>
       <c r="E14" s="9"/>
@@ -7453,7 +7674,9 @@
       <c r="A16" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="B16" s="4"/>
+      <c r="B16" s="4">
+        <v>10</v>
+      </c>
       <c r="C16" s="9"/>
       <c r="D16" s="4"/>
       <c r="E16" s="9"/>
@@ -7503,32 +7726,74 @@
       <c r="A18" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="9"/>
-      <c r="T18" s="4"/>
-      <c r="U18" s="9"/>
+      <c r="B18" s="4">
+        <v>10</v>
+      </c>
+      <c r="C18" s="9">
+        <v>10</v>
+      </c>
+      <c r="D18" s="4">
+        <v>10</v>
+      </c>
+      <c r="E18" s="9">
+        <v>10</v>
+      </c>
+      <c r="F18" s="4">
+        <v>10</v>
+      </c>
+      <c r="G18" s="9">
+        <v>10</v>
+      </c>
+      <c r="H18" s="4">
+        <v>10</v>
+      </c>
+      <c r="I18" s="9">
+        <v>10</v>
+      </c>
+      <c r="J18" s="4">
+        <v>10</v>
+      </c>
+      <c r="K18" s="9">
+        <v>10</v>
+      </c>
+      <c r="L18" s="4">
+        <v>10</v>
+      </c>
+      <c r="M18" s="9">
+        <v>10</v>
+      </c>
+      <c r="N18" s="4">
+        <v>10</v>
+      </c>
+      <c r="O18" s="9">
+        <v>10</v>
+      </c>
+      <c r="P18" s="4">
+        <v>10</v>
+      </c>
+      <c r="Q18" s="9">
+        <v>10</v>
+      </c>
+      <c r="R18" s="4">
+        <v>10</v>
+      </c>
+      <c r="S18" s="9">
+        <v>10</v>
+      </c>
+      <c r="T18" s="4">
+        <v>10</v>
+      </c>
+      <c r="U18" s="9">
+        <v>10</v>
+      </c>
     </row>
     <row r="19" spans="1:21" ht="24" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="B19" s="4"/>
+      <c r="B19" s="4">
+        <v>10</v>
+      </c>
       <c r="C19" s="9"/>
       <c r="D19" s="4"/>
       <c r="E19" s="9"/>
@@ -7578,7 +7843,9 @@
       <c r="A21" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B21" s="4"/>
+      <c r="B21" s="4">
+        <v>10</v>
+      </c>
       <c r="C21" s="9"/>
       <c r="D21" s="4"/>
       <c r="E21" s="9"/>
@@ -7603,7 +7870,9 @@
       <c r="A22" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="B22" s="4"/>
+      <c r="B22" s="4">
+        <v>10</v>
+      </c>
       <c r="C22" s="9"/>
       <c r="D22" s="4"/>
       <c r="E22" s="9"/>
@@ -7653,7 +7922,9 @@
       <c r="A24" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B24" s="4"/>
+      <c r="B24" s="4">
+        <v>10</v>
+      </c>
       <c r="C24" s="9"/>
       <c r="D24" s="4"/>
       <c r="E24" s="9"/>
@@ -7678,7 +7949,9 @@
       <c r="A25" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="B25" s="4"/>
+      <c r="B25" s="4">
+        <v>10</v>
+      </c>
       <c r="C25" s="9"/>
       <c r="D25" s="4"/>
       <c r="E25" s="9"/>
@@ -7703,7 +7976,9 @@
       <c r="A26" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="B26" s="4"/>
+      <c r="B26" s="4">
+        <v>10</v>
+      </c>
       <c r="C26" s="9"/>
       <c r="D26" s="4"/>
       <c r="E26" s="9"/>
@@ -7728,7 +8003,9 @@
       <c r="A27" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="B27" s="4"/>
+      <c r="B27" s="4">
+        <v>0</v>
+      </c>
       <c r="C27" s="9"/>
       <c r="D27" s="4"/>
       <c r="E27" s="9"/>
@@ -7778,7 +8055,9 @@
       <c r="A29" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="B29" s="4"/>
+      <c r="B29" s="4">
+        <v>0</v>
+      </c>
       <c r="C29" s="9"/>
       <c r="D29" s="4"/>
       <c r="E29" s="9"/>
@@ -7803,7 +8082,9 @@
       <c r="A30" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="B30" s="4"/>
+      <c r="B30" s="4">
+        <v>0</v>
+      </c>
       <c r="C30" s="9"/>
       <c r="D30" s="4"/>
       <c r="E30" s="9"/>
@@ -7853,7 +8134,9 @@
       <c r="A32" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="B32" s="4"/>
+      <c r="B32" s="4">
+        <v>10</v>
+      </c>
       <c r="C32" s="9"/>
       <c r="D32" s="4"/>
       <c r="E32" s="9"/>
@@ -7878,7 +8161,9 @@
       <c r="A33" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B33" s="4"/>
+      <c r="B33" s="4">
+        <v>0</v>
+      </c>
       <c r="C33" s="9"/>
       <c r="D33" s="4"/>
       <c r="E33" s="9"/>
@@ -7900,6 +8185,9 @@
       <c r="U33" s="9"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="L1" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>